--- a/Program/Other/LP004_底稿_單位成績(內部網站).xlsx
+++ b/Program/Other/LP004_底稿_單位成績(內部網站).xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKL\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5664EFF5-A8E7-4B6C-89FB-D3D6D6074495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="688" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="688"/>
   </bookViews>
   <sheets>
-    <sheet name="區域中心" sheetId="21" r:id="rId1"/>
+    <sheet name="放款審查課各區" sheetId="21" r:id="rId1"/>
     <sheet name="房貸部專" sheetId="22" r:id="rId2"/>
     <sheet name="房貸專員" sheetId="19" r:id="rId3"/>
     <sheet name="部室" sheetId="18" r:id="rId4"/>
@@ -35,7 +34,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">營管!$A$2:$I$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">房貸專員!$A$1:$I$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">房貸部專!$A$1:$I$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">區域中心!$A$1:$I$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">放款審查課各區!$A$1:$I$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">區部!$A$1:$I$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">部室!$A$1:$H$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">單位總表!$A$1:$I$2</definedName>
@@ -45,7 +44,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">營管!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="9">單位總表!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1"/>
 </workbook>
 </file>
 
@@ -1039,42 +1038,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color indexed="63"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>北部區域中心</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="63"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>中部區域中心</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="63"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>南部區域中心</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <b/>
         <sz val="11"/>
         <rFont val="標楷體"/>
@@ -1134,22 +1097,6 @@
   </si>
   <si>
     <r>
-      <t>108.05</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>工作月　區域中心業績統計報表</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -1189,11 +1136,39 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>放款審查課-北區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放款審查課-中區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放款審查課-南區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>108.05</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>工作月　放款審查課業績統計報表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
@@ -1650,15 +1625,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1667,15 +1633,6 @@
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1689,10 +1646,6 @@
     <xf numFmtId="177" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1709,29 +1662,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1739,9 +1674,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1765,10 +1697,53 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1865,23 +1840,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1917,23 +1875,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2109,89 +2050,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF3399"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.90625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.90625" style="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="39.9" customHeight="1">
-      <c r="A1" s="37" t="s">
-        <v>62</v>
+      <c r="A1" s="65" t="s">
+        <v>65</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="50.15" customHeight="1">
+      <c r="A3" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="37" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>56</v>
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="35.15" customHeight="1">
+      <c r="A4" s="34" t="s">
+        <v>62</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
@@ -2202,9 +2143,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>57</v>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="35.15" customHeight="1">
+      <c r="A5" s="34" t="s">
+        <v>63</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
@@ -2215,9 +2156,9 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A6" s="9" t="s">
-        <v>58</v>
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="35.15" customHeight="1">
+      <c r="A6" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
@@ -2228,18 +2169,18 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A7" s="40" t="s">
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="35.15" customHeight="1">
+      <c r="A7" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
     </row>
     <row r="8" spans="1:9">
       <c r="H8" s="12"/>
@@ -2264,70 +2205,70 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I253"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="52" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="52" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="52" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="52" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="52" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="56" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="56" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="56" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="56" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="52"/>
+    <col min="1" max="1" width="5.453125" style="44" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" style="44" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" style="44" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" style="44" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="44" customWidth="1"/>
+    <col min="6" max="6" width="7.6328125" style="48" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" style="48" customWidth="1"/>
+    <col min="8" max="8" width="7.6328125" style="48" customWidth="1"/>
+    <col min="9" max="9" width="16.6328125" style="48" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="79" customFormat="1" ht="21" customHeight="1">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:9" s="63" customFormat="1" ht="21" customHeight="1">
+      <c r="A1" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-    </row>
-    <row r="2" spans="1:9" s="71" customFormat="1" ht="39" customHeight="1">
-      <c r="A2" s="70" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+    </row>
+    <row r="2" spans="1:9" s="56" customFormat="1" ht="39" customHeight="1">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="70" t="s">
-        <v>61</v>
+      <c r="I2" s="55" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
@@ -5092,7 +5033,7 @@
       <c r="I253" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I253" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
+  <autoFilter ref="A2:I253"/>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
@@ -5107,7 +5048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="44"/>
   </sheetPr>
@@ -5117,74 +5058,74 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.6640625" style="13" customWidth="1"/>
-    <col min="7" max="8" width="10.6640625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.6328125" style="13" customWidth="1"/>
+    <col min="7" max="8" width="10.6328125" style="13" customWidth="1"/>
+    <col min="9" max="9" width="10.6328125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="39.9" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-    </row>
-    <row r="3" spans="1:9" ht="35.1" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+    </row>
+    <row r="3" spans="1:9" ht="35.15" customHeight="1">
+      <c r="A3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="39" t="s">
-        <v>60</v>
+      <c r="I3" s="37" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="35.15" customHeight="1">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -5197,7 +5138,7 @@
       <c r="H4" s="30"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="35.15" customHeight="1">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -5210,7 +5151,7 @@
       <c r="H5" s="27"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1">
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="35.15" customHeight="1">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -5223,7 +5164,7 @@
       <c r="H6" s="27"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1">
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="35.15" customHeight="1">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -5236,18 +5177,18 @@
       <c r="H7" s="31"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="44" t="s">
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="35.15" customHeight="1">
+      <c r="A8" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="49"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="43"/>
     </row>
     <row r="25" spans="7:7">
       <c r="G25" s="28"/>
@@ -5269,7 +5210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0000CC"/>
     <pageSetUpPr fitToPage="1"/>
@@ -5282,73 +5223,73 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="52" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="52" customWidth="1"/>
-    <col min="4" max="5" width="15" style="56" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" style="56" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" style="57" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" style="56" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" style="56" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="52"/>
+    <col min="1" max="1" width="5.453125" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="44" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" style="44" customWidth="1"/>
+    <col min="4" max="5" width="15" style="48" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.90625" style="48" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" style="49" customWidth="1"/>
+    <col min="8" max="8" width="13.90625" style="48" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" style="48" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.1" customHeight="1">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:9" ht="26.15" customHeight="1">
+      <c r="A1" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-    </row>
-    <row r="2" spans="1:9" s="53" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+    </row>
+    <row r="2" spans="1:9" s="45" customFormat="1" ht="26.15" customHeight="1">
+      <c r="A2" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="3" spans="1:9" ht="39.75" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="54" t="s">
-        <v>64</v>
+      <c r="E3" s="46" t="s">
+        <v>60</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="54" t="s">
-        <v>65</v>
+      <c r="I3" s="46" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="53" customFormat="1" ht="23.1" customHeight="1">
+    <row r="4" spans="1:9" s="45" customFormat="1" ht="23.15" customHeight="1">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -5359,7 +5300,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="35"/>
     </row>
-    <row r="5" spans="1:9" s="53" customFormat="1" ht="23.1" customHeight="1">
+    <row r="5" spans="1:9" s="45" customFormat="1" ht="23.15" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -5370,7 +5311,7 @@
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" s="53" customFormat="1" ht="23.1" customHeight="1">
+    <row r="6" spans="1:9" s="45" customFormat="1" ht="23.15" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -5381,7 +5322,7 @@
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" s="53" customFormat="1" ht="23.1" customHeight="1">
+    <row r="7" spans="1:9" s="45" customFormat="1" ht="23.15" customHeight="1">
       <c r="A7" s="9"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -5392,7 +5333,7 @@
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" s="53" customFormat="1" ht="23.1" customHeight="1">
+    <row r="8" spans="1:9" s="45" customFormat="1" ht="23.15" customHeight="1">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -5403,7 +5344,7 @@
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" s="53" customFormat="1" ht="23.1" customHeight="1">
+    <row r="9" spans="1:9" s="45" customFormat="1" ht="23.15" customHeight="1">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -5414,7 +5355,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="35"/>
     </row>
-    <row r="10" spans="1:9" s="53" customFormat="1" ht="23.1" customHeight="1">
+    <row r="10" spans="1:9" s="45" customFormat="1" ht="23.15" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -5425,7 +5366,7 @@
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" s="53" customFormat="1" ht="23.1" customHeight="1">
+    <row r="11" spans="1:9" s="45" customFormat="1" ht="23.15" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -5436,7 +5377,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" s="53" customFormat="1" ht="23.1" customHeight="1">
+    <row r="12" spans="1:9" s="45" customFormat="1" ht="23.15" customHeight="1">
       <c r="A12" s="9"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -5447,7 +5388,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" s="53" customFormat="1" ht="23.1" customHeight="1">
+    <row r="13" spans="1:9" s="45" customFormat="1" ht="23.15" customHeight="1">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -9137,7 +9078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
@@ -9151,53 +9092,53 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.6640625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="13" customWidth="1"/>
+    <col min="2" max="4" width="10.6328125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="16.6328125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="16.6328125" style="13" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="21" customFormat="1" ht="39.9" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
     </row>
     <row r="2" spans="1:8" ht="39.9" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="50" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="35.1" customHeight="1">
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="35.15" customHeight="1">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -9209,7 +9150,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" ht="35.1" customHeight="1">
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="35.15" customHeight="1">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -9221,7 +9162,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="35.1" customHeight="1">
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="35.15" customHeight="1">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -9233,7 +9174,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" ht="35.1" customHeight="1">
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="35.15" customHeight="1">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -9245,17 +9186,17 @@
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="1:8" s="25" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A7" s="60" t="s">
+    <row r="7" spans="1:8" s="25" customFormat="1" ht="35.15" customHeight="1">
+      <c r="A7" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="42"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1">
       <c r="C8" s="26"/>
@@ -9281,7 +9222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF336600"/>
     <pageSetUpPr fitToPage="1"/>
@@ -9294,60 +9235,60 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="52" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="67" customWidth="1"/>
-    <col min="3" max="4" width="10.6640625" style="68" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="67" customWidth="1"/>
-    <col min="6" max="6" width="5.88671875" style="56" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="56" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="56" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="56" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="52"/>
+    <col min="1" max="1" width="5.6328125" style="44" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="53" customWidth="1"/>
+    <col min="3" max="4" width="10.6328125" style="54" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" style="53" customWidth="1"/>
+    <col min="6" max="6" width="5.90625" style="48" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="48" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6328125" style="48" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6328125" style="48" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="66" customFormat="1" ht="24.9" customHeight="1">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:9" s="52" customFormat="1" ht="24.9" customHeight="1">
+      <c r="A1" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
     </row>
     <row r="2" spans="1:9" ht="39.9" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="50" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="53" customFormat="1" ht="23.1" customHeight="1">
+    <row r="3" spans="1:9" s="45" customFormat="1" ht="23.15" customHeight="1">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -9358,7 +9299,7 @@
       <c r="H3" s="15"/>
       <c r="I3" s="16"/>
     </row>
-    <row r="4" spans="1:9" s="53" customFormat="1" ht="23.1" customHeight="1">
+    <row r="4" spans="1:9" s="45" customFormat="1" ht="23.15" customHeight="1">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -9369,7 +9310,7 @@
       <c r="H4" s="18"/>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" s="53" customFormat="1" ht="23.1" customHeight="1">
+    <row r="5" spans="1:9" s="45" customFormat="1" ht="23.15" customHeight="1">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="36"/>
@@ -9380,7 +9321,7 @@
       <c r="H5" s="18"/>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" s="53" customFormat="1" ht="23.1" customHeight="1">
+    <row r="6" spans="1:9" s="45" customFormat="1" ht="23.15" customHeight="1">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -9391,7 +9332,7 @@
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" spans="1:9" s="53" customFormat="1" ht="23.1" customHeight="1">
+    <row r="7" spans="1:9" s="45" customFormat="1" ht="23.15" customHeight="1">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -12563,7 +12504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -12575,54 +12516,54 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="52" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="52" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="52" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="52" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="56" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="56" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="56" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="56" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="52"/>
+    <col min="1" max="1" width="5.6328125" style="44" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" style="44" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" style="44" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="44" customWidth="1"/>
+    <col min="6" max="6" width="7.6328125" style="48" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" style="48" customWidth="1"/>
+    <col min="8" max="8" width="7.6328125" style="48" customWidth="1"/>
+    <col min="9" max="9" width="16.6328125" style="48" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="69" customFormat="1" ht="21" customHeight="1">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:9" s="78" customFormat="1" ht="21" customHeight="1">
+      <c r="A1" s="78" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="71" customFormat="1" ht="39.9" customHeight="1">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:9" s="56" customFormat="1" ht="39.9" customHeight="1">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="55" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="53" customFormat="1" ht="21" customHeight="1">
-      <c r="A3" s="72"/>
+    <row r="3" spans="1:9" s="45" customFormat="1" ht="21" customHeight="1">
+      <c r="A3" s="57"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="34"/>
@@ -12632,7 +12573,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" s="53" customFormat="1" ht="21" customHeight="1">
+    <row r="4" spans="1:9" s="45" customFormat="1" ht="21" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -12643,8 +12584,8 @@
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" s="53" customFormat="1" ht="21" customHeight="1">
-      <c r="A5" s="73"/>
+    <row r="5" spans="1:9" s="45" customFormat="1" ht="21" customHeight="1">
+      <c r="A5" s="58"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -12654,8 +12595,8 @@
       <c r="H5" s="7"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" s="53" customFormat="1" ht="21" customHeight="1">
-      <c r="A6" s="74"/>
+    <row r="6" spans="1:9" s="45" customFormat="1" ht="21" customHeight="1">
+      <c r="A6" s="59"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -12666,7 +12607,7 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1">
-      <c r="A7" s="74"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -12677,7 +12618,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="21" customHeight="1">
-      <c r="A8" s="74"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -12688,7 +12629,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="21" customHeight="1">
-      <c r="A9" s="74"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -12699,7 +12640,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="21" customHeight="1">
-      <c r="A10" s="74"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -12710,7 +12651,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="21" customHeight="1">
-      <c r="A11" s="74"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -12721,7 +12662,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="21" customHeight="1">
-      <c r="A12" s="74"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -12732,7 +12673,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="21" customHeight="1">
-      <c r="A13" s="74"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -12743,7 +12684,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="21" customHeight="1">
-      <c r="A14" s="74"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -12754,7 +12695,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="21" customHeight="1">
-      <c r="A15" s="74"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -12765,7 +12706,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="21" customHeight="1">
-      <c r="A16" s="74"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -12776,7 +12717,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="21" customHeight="1">
-      <c r="A17" s="74"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -12787,7 +12728,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="21" customHeight="1">
-      <c r="A18" s="74"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -12798,7 +12739,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="21" customHeight="1">
-      <c r="A19" s="74"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -12809,7 +12750,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" ht="21" customHeight="1">
-      <c r="A20" s="74"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -12820,7 +12761,7 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" ht="21" customHeight="1">
-      <c r="A21" s="74"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -12831,7 +12772,7 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9" ht="21" customHeight="1">
-      <c r="A22" s="74"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -12842,7 +12783,7 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" ht="21" customHeight="1">
-      <c r="A23" s="74"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -12853,7 +12794,7 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" ht="21" customHeight="1">
-      <c r="A24" s="74"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -12864,7 +12805,7 @@
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9" ht="21" customHeight="1">
-      <c r="A25" s="74"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -12875,7 +12816,7 @@
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9" ht="21" customHeight="1">
-      <c r="A26" s="74"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -12886,7 +12827,7 @@
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" ht="21" customHeight="1">
-      <c r="A27" s="74"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -12897,7 +12838,7 @@
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" ht="21" customHeight="1">
-      <c r="A28" s="74"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -12908,7 +12849,7 @@
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" ht="21" customHeight="1">
-      <c r="A29" s="74"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -12919,7 +12860,7 @@
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:9" ht="21" customHeight="1">
-      <c r="A30" s="74"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -12930,7 +12871,7 @@
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:9" ht="21" customHeight="1">
-      <c r="A31" s="74"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -12941,7 +12882,7 @@
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" ht="21" customHeight="1">
-      <c r="A32" s="74"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -12952,7 +12893,7 @@
       <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9" ht="21" customHeight="1">
-      <c r="A33" s="74"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -12963,7 +12904,7 @@
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" ht="21" customHeight="1">
-      <c r="A34" s="74"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -12974,7 +12915,7 @@
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9" ht="21" customHeight="1">
-      <c r="A35" s="74"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -12985,7 +12926,7 @@
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="1:9" ht="21" customHeight="1">
-      <c r="A36" s="74"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -12996,7 +12937,7 @@
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="1:9" ht="21" customHeight="1">
-      <c r="A37" s="74"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -13007,7 +12948,7 @@
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="1:9" ht="21" customHeight="1">
-      <c r="A38" s="74"/>
+      <c r="A38" s="59"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -13018,7 +12959,7 @@
       <c r="I38" s="8"/>
     </row>
     <row r="39" spans="1:9" ht="21" customHeight="1">
-      <c r="A39" s="74"/>
+      <c r="A39" s="59"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -13029,7 +12970,7 @@
       <c r="I39" s="8"/>
     </row>
     <row r="40" spans="1:9" ht="21" customHeight="1">
-      <c r="A40" s="74"/>
+      <c r="A40" s="59"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -13040,7 +12981,7 @@
       <c r="I40" s="8"/>
     </row>
     <row r="41" spans="1:9" ht="21" customHeight="1">
-      <c r="A41" s="74"/>
+      <c r="A41" s="59"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -13051,7 +12992,7 @@
       <c r="I41" s="8"/>
     </row>
     <row r="42" spans="1:9" ht="21" customHeight="1">
-      <c r="A42" s="74"/>
+      <c r="A42" s="59"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -13062,7 +13003,7 @@
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:9" ht="21" customHeight="1">
-      <c r="A43" s="74"/>
+      <c r="A43" s="59"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -13073,7 +13014,7 @@
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="1:9" ht="21" customHeight="1">
-      <c r="A44" s="74"/>
+      <c r="A44" s="59"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -13084,7 +13025,7 @@
       <c r="I44" s="8"/>
     </row>
     <row r="45" spans="1:9" ht="21" customHeight="1">
-      <c r="A45" s="74"/>
+      <c r="A45" s="59"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -13095,7 +13036,7 @@
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:9" ht="21" customHeight="1">
-      <c r="A46" s="74"/>
+      <c r="A46" s="59"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -13106,7 +13047,7 @@
       <c r="I46" s="8"/>
     </row>
     <row r="47" spans="1:9" ht="21" customHeight="1">
-      <c r="A47" s="74"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -13117,7 +13058,7 @@
       <c r="I47" s="8"/>
     </row>
     <row r="48" spans="1:9" ht="21" customHeight="1">
-      <c r="A48" s="74"/>
+      <c r="A48" s="59"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -13128,7 +13069,7 @@
       <c r="I48" s="8"/>
     </row>
     <row r="49" spans="1:9" ht="21" customHeight="1">
-      <c r="A49" s="74"/>
+      <c r="A49" s="59"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -13139,7 +13080,7 @@
       <c r="I49" s="8"/>
     </row>
     <row r="50" spans="1:9" ht="21" customHeight="1">
-      <c r="A50" s="74"/>
+      <c r="A50" s="59"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -13150,7 +13091,7 @@
       <c r="I50" s="8"/>
     </row>
     <row r="51" spans="1:9" ht="21" customHeight="1">
-      <c r="A51" s="74"/>
+      <c r="A51" s="59"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -13161,7 +13102,7 @@
       <c r="I51" s="8"/>
     </row>
     <row r="52" spans="1:9" ht="21" customHeight="1">
-      <c r="A52" s="74"/>
+      <c r="A52" s="59"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -13172,7 +13113,7 @@
       <c r="I52" s="8"/>
     </row>
     <row r="53" spans="1:9" ht="21" customHeight="1">
-      <c r="A53" s="74"/>
+      <c r="A53" s="59"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -13183,7 +13124,7 @@
       <c r="I53" s="8"/>
     </row>
     <row r="54" spans="1:9" ht="21" customHeight="1">
-      <c r="A54" s="74"/>
+      <c r="A54" s="59"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -13194,7 +13135,7 @@
       <c r="I54" s="8"/>
     </row>
     <row r="55" spans="1:9" ht="21" customHeight="1">
-      <c r="A55" s="74"/>
+      <c r="A55" s="59"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -13205,7 +13146,7 @@
       <c r="I55" s="8"/>
     </row>
     <row r="56" spans="1:9" ht="21" customHeight="1">
-      <c r="A56" s="74"/>
+      <c r="A56" s="59"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -13216,7 +13157,7 @@
       <c r="I56" s="8"/>
     </row>
     <row r="57" spans="1:9" ht="21" customHeight="1">
-      <c r="A57" s="74"/>
+      <c r="A57" s="59"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -13227,7 +13168,7 @@
       <c r="I57" s="8"/>
     </row>
     <row r="58" spans="1:9" ht="21" customHeight="1">
-      <c r="A58" s="74"/>
+      <c r="A58" s="59"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -13238,7 +13179,7 @@
       <c r="I58" s="8"/>
     </row>
     <row r="59" spans="1:9" ht="21" customHeight="1">
-      <c r="A59" s="74"/>
+      <c r="A59" s="59"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -13249,7 +13190,7 @@
       <c r="I59" s="8"/>
     </row>
     <row r="60" spans="1:9" ht="21" customHeight="1">
-      <c r="A60" s="74"/>
+      <c r="A60" s="59"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -13260,7 +13201,7 @@
       <c r="I60" s="8"/>
     </row>
     <row r="61" spans="1:9" ht="21" customHeight="1">
-      <c r="A61" s="74"/>
+      <c r="A61" s="59"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -13271,7 +13212,7 @@
       <c r="I61" s="8"/>
     </row>
     <row r="62" spans="1:9" ht="21" customHeight="1">
-      <c r="A62" s="74"/>
+      <c r="A62" s="59"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -13282,7 +13223,7 @@
       <c r="I62" s="8"/>
     </row>
     <row r="63" spans="1:9" ht="21" customHeight="1">
-      <c r="A63" s="74"/>
+      <c r="A63" s="59"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -13293,7 +13234,7 @@
       <c r="I63" s="8"/>
     </row>
     <row r="64" spans="1:9" ht="21" customHeight="1">
-      <c r="A64" s="74"/>
+      <c r="A64" s="59"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -13304,7 +13245,7 @@
       <c r="I64" s="8"/>
     </row>
     <row r="65" spans="1:9" ht="21" customHeight="1">
-      <c r="A65" s="74"/>
+      <c r="A65" s="59"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -13315,7 +13256,7 @@
       <c r="I65" s="8"/>
     </row>
     <row r="66" spans="1:9" ht="21" customHeight="1">
-      <c r="A66" s="74"/>
+      <c r="A66" s="59"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -13326,7 +13267,7 @@
       <c r="I66" s="8"/>
     </row>
     <row r="67" spans="1:9" ht="21" customHeight="1">
-      <c r="A67" s="74"/>
+      <c r="A67" s="59"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -13337,7 +13278,7 @@
       <c r="I67" s="8"/>
     </row>
     <row r="68" spans="1:9" ht="21" customHeight="1">
-      <c r="A68" s="74"/>
+      <c r="A68" s="59"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -13348,7 +13289,7 @@
       <c r="I68" s="8"/>
     </row>
     <row r="69" spans="1:9" ht="21" customHeight="1">
-      <c r="A69" s="74"/>
+      <c r="A69" s="59"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -13359,7 +13300,7 @@
       <c r="I69" s="8"/>
     </row>
     <row r="70" spans="1:9" ht="21" customHeight="1">
-      <c r="A70" s="74"/>
+      <c r="A70" s="59"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -13370,7 +13311,7 @@
       <c r="I70" s="8"/>
     </row>
     <row r="71" spans="1:9" ht="21" customHeight="1">
-      <c r="A71" s="74"/>
+      <c r="A71" s="59"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -13381,7 +13322,7 @@
       <c r="I71" s="8"/>
     </row>
     <row r="72" spans="1:9" ht="21" customHeight="1">
-      <c r="A72" s="74"/>
+      <c r="A72" s="59"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -13392,7 +13333,7 @@
       <c r="I72" s="8"/>
     </row>
     <row r="73" spans="1:9" ht="21" customHeight="1">
-      <c r="A73" s="74"/>
+      <c r="A73" s="59"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -13403,7 +13344,7 @@
       <c r="I73" s="8"/>
     </row>
     <row r="74" spans="1:9" ht="21" customHeight="1">
-      <c r="A74" s="74"/>
+      <c r="A74" s="59"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -13414,7 +13355,7 @@
       <c r="I74" s="8"/>
     </row>
     <row r="75" spans="1:9" ht="21" customHeight="1">
-      <c r="A75" s="74"/>
+      <c r="A75" s="59"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -13425,7 +13366,7 @@
       <c r="I75" s="8"/>
     </row>
     <row r="76" spans="1:9" ht="21" customHeight="1">
-      <c r="A76" s="74"/>
+      <c r="A76" s="59"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -13436,7 +13377,7 @@
       <c r="I76" s="8"/>
     </row>
     <row r="77" spans="1:9" ht="21" customHeight="1">
-      <c r="A77" s="74"/>
+      <c r="A77" s="59"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -13447,7 +13388,7 @@
       <c r="I77" s="8"/>
     </row>
     <row r="78" spans="1:9" ht="21" customHeight="1">
-      <c r="A78" s="74"/>
+      <c r="A78" s="59"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -13458,7 +13399,7 @@
       <c r="I78" s="8"/>
     </row>
     <row r="79" spans="1:9" ht="21" customHeight="1">
-      <c r="A79" s="74"/>
+      <c r="A79" s="59"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -13469,7 +13410,7 @@
       <c r="I79" s="8"/>
     </row>
     <row r="80" spans="1:9" ht="21" customHeight="1">
-      <c r="A80" s="74"/>
+      <c r="A80" s="59"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -13480,7 +13421,7 @@
       <c r="I80" s="8"/>
     </row>
     <row r="81" spans="1:9" ht="21" customHeight="1">
-      <c r="A81" s="74"/>
+      <c r="A81" s="59"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -13491,7 +13432,7 @@
       <c r="I81" s="8"/>
     </row>
     <row r="82" spans="1:9" ht="21" customHeight="1">
-      <c r="A82" s="74"/>
+      <c r="A82" s="59"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -13502,7 +13443,7 @@
       <c r="I82" s="8"/>
     </row>
     <row r="83" spans="1:9" ht="21" customHeight="1">
-      <c r="A83" s="74"/>
+      <c r="A83" s="59"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -13513,7 +13454,7 @@
       <c r="I83" s="8"/>
     </row>
     <row r="84" spans="1:9" ht="21" customHeight="1">
-      <c r="A84" s="74"/>
+      <c r="A84" s="59"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -13524,7 +13465,7 @@
       <c r="I84" s="8"/>
     </row>
     <row r="85" spans="1:9" ht="21" customHeight="1">
-      <c r="A85" s="74"/>
+      <c r="A85" s="59"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -13535,7 +13476,7 @@
       <c r="I85" s="8"/>
     </row>
     <row r="86" spans="1:9" ht="21" customHeight="1">
-      <c r="A86" s="74"/>
+      <c r="A86" s="59"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -13546,7 +13487,7 @@
       <c r="I86" s="8"/>
     </row>
     <row r="87" spans="1:9" ht="21" customHeight="1">
-      <c r="A87" s="74"/>
+      <c r="A87" s="59"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -13557,7 +13498,7 @@
       <c r="I87" s="8"/>
     </row>
     <row r="88" spans="1:9" ht="21" customHeight="1">
-      <c r="A88" s="74"/>
+      <c r="A88" s="59"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -13568,7 +13509,7 @@
       <c r="I88" s="8"/>
     </row>
     <row r="89" spans="1:9" ht="21" customHeight="1">
-      <c r="A89" s="74"/>
+      <c r="A89" s="59"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -13579,7 +13520,7 @@
       <c r="I89" s="8"/>
     </row>
     <row r="90" spans="1:9" ht="21" customHeight="1">
-      <c r="A90" s="74"/>
+      <c r="A90" s="59"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -13590,7 +13531,7 @@
       <c r="I90" s="8"/>
     </row>
     <row r="91" spans="1:9" ht="21" customHeight="1">
-      <c r="A91" s="74"/>
+      <c r="A91" s="59"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -13601,7 +13542,7 @@
       <c r="I91" s="8"/>
     </row>
     <row r="92" spans="1:9" ht="21" customHeight="1">
-      <c r="A92" s="74"/>
+      <c r="A92" s="59"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -13612,7 +13553,7 @@
       <c r="I92" s="8"/>
     </row>
     <row r="93" spans="1:9" ht="21" customHeight="1">
-      <c r="A93" s="74"/>
+      <c r="A93" s="59"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -13623,7 +13564,7 @@
       <c r="I93" s="8"/>
     </row>
     <row r="94" spans="1:9" ht="21" customHeight="1">
-      <c r="A94" s="74"/>
+      <c r="A94" s="59"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -13634,7 +13575,7 @@
       <c r="I94" s="8"/>
     </row>
     <row r="95" spans="1:9" ht="21" customHeight="1">
-      <c r="A95" s="74"/>
+      <c r="A95" s="59"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -13645,7 +13586,7 @@
       <c r="I95" s="8"/>
     </row>
     <row r="96" spans="1:9" ht="21" customHeight="1">
-      <c r="A96" s="74"/>
+      <c r="A96" s="59"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -13656,7 +13597,7 @@
       <c r="I96" s="8"/>
     </row>
     <row r="97" spans="1:9" ht="21" customHeight="1">
-      <c r="A97" s="74"/>
+      <c r="A97" s="59"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -13667,7 +13608,7 @@
       <c r="I97" s="8"/>
     </row>
     <row r="98" spans="1:9" ht="21" customHeight="1">
-      <c r="A98" s="74"/>
+      <c r="A98" s="59"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -13678,7 +13619,7 @@
       <c r="I98" s="8"/>
     </row>
     <row r="99" spans="1:9" ht="21" customHeight="1">
-      <c r="A99" s="74"/>
+      <c r="A99" s="59"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -13689,7 +13630,7 @@
       <c r="I99" s="8"/>
     </row>
     <row r="100" spans="1:9" ht="21" customHeight="1">
-      <c r="A100" s="74"/>
+      <c r="A100" s="59"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -13700,7 +13641,7 @@
       <c r="I100" s="8"/>
     </row>
     <row r="101" spans="1:9" ht="21" customHeight="1">
-      <c r="A101" s="74"/>
+      <c r="A101" s="59"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -13711,7 +13652,7 @@
       <c r="I101" s="8"/>
     </row>
     <row r="102" spans="1:9" ht="21" customHeight="1">
-      <c r="A102" s="74"/>
+      <c r="A102" s="59"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -13722,7 +13663,7 @@
       <c r="I102" s="8"/>
     </row>
     <row r="103" spans="1:9" ht="21" customHeight="1">
-      <c r="A103" s="74"/>
+      <c r="A103" s="59"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -13733,7 +13674,7 @@
       <c r="I103" s="8"/>
     </row>
     <row r="104" spans="1:9" ht="21" customHeight="1">
-      <c r="A104" s="74"/>
+      <c r="A104" s="59"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -13744,7 +13685,7 @@
       <c r="I104" s="8"/>
     </row>
     <row r="105" spans="1:9" ht="21" customHeight="1">
-      <c r="A105" s="74"/>
+      <c r="A105" s="59"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -13755,7 +13696,7 @@
       <c r="I105" s="8"/>
     </row>
     <row r="106" spans="1:9" ht="21" customHeight="1">
-      <c r="A106" s="74"/>
+      <c r="A106" s="59"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -13766,7 +13707,7 @@
       <c r="I106" s="8"/>
     </row>
     <row r="107" spans="1:9" ht="21" customHeight="1">
-      <c r="A107" s="74"/>
+      <c r="A107" s="59"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -13777,7 +13718,7 @@
       <c r="I107" s="8"/>
     </row>
     <row r="108" spans="1:9" ht="21" customHeight="1">
-      <c r="A108" s="74"/>
+      <c r="A108" s="59"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
@@ -13788,7 +13729,7 @@
       <c r="I108" s="8"/>
     </row>
     <row r="109" spans="1:9" ht="21" customHeight="1">
-      <c r="A109" s="74"/>
+      <c r="A109" s="59"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -13799,7 +13740,7 @@
       <c r="I109" s="8"/>
     </row>
     <row r="110" spans="1:9" ht="21" customHeight="1">
-      <c r="A110" s="74"/>
+      <c r="A110" s="59"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -13810,7 +13751,7 @@
       <c r="I110" s="8"/>
     </row>
     <row r="111" spans="1:9" ht="21" customHeight="1">
-      <c r="A111" s="74"/>
+      <c r="A111" s="59"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -13821,7 +13762,7 @@
       <c r="I111" s="8"/>
     </row>
     <row r="112" spans="1:9" ht="21" customHeight="1">
-      <c r="A112" s="74"/>
+      <c r="A112" s="59"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -13832,7 +13773,7 @@
       <c r="I112" s="8"/>
     </row>
     <row r="113" spans="1:9" ht="21" customHeight="1">
-      <c r="A113" s="74"/>
+      <c r="A113" s="59"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -13843,7 +13784,7 @@
       <c r="I113" s="8"/>
     </row>
     <row r="114" spans="1:9" ht="21" customHeight="1">
-      <c r="A114" s="74"/>
+      <c r="A114" s="59"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -13854,7 +13795,7 @@
       <c r="I114" s="8"/>
     </row>
     <row r="115" spans="1:9" ht="21" customHeight="1">
-      <c r="A115" s="74"/>
+      <c r="A115" s="59"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -13865,7 +13806,7 @@
       <c r="I115" s="8"/>
     </row>
     <row r="116" spans="1:9" ht="21" customHeight="1">
-      <c r="A116" s="74"/>
+      <c r="A116" s="59"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -13876,7 +13817,7 @@
       <c r="I116" s="8"/>
     </row>
     <row r="117" spans="1:9" ht="21" customHeight="1">
-      <c r="A117" s="74"/>
+      <c r="A117" s="59"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -13887,7 +13828,7 @@
       <c r="I117" s="8"/>
     </row>
     <row r="118" spans="1:9" ht="21" customHeight="1">
-      <c r="A118" s="74"/>
+      <c r="A118" s="59"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -13898,7 +13839,7 @@
       <c r="I118" s="8"/>
     </row>
     <row r="119" spans="1:9" ht="21" customHeight="1">
-      <c r="A119" s="74"/>
+      <c r="A119" s="59"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -13909,7 +13850,7 @@
       <c r="I119" s="8"/>
     </row>
     <row r="120" spans="1:9" ht="21" customHeight="1">
-      <c r="A120" s="74"/>
+      <c r="A120" s="59"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
@@ -13920,7 +13861,7 @@
       <c r="I120" s="8"/>
     </row>
     <row r="121" spans="1:9" ht="21" customHeight="1">
-      <c r="A121" s="74"/>
+      <c r="A121" s="59"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -13931,7 +13872,7 @@
       <c r="I121" s="8"/>
     </row>
     <row r="122" spans="1:9" ht="21" customHeight="1">
-      <c r="A122" s="74"/>
+      <c r="A122" s="59"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
@@ -13942,7 +13883,7 @@
       <c r="I122" s="8"/>
     </row>
     <row r="123" spans="1:9" ht="21" customHeight="1">
-      <c r="A123" s="74"/>
+      <c r="A123" s="59"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -13953,7 +13894,7 @@
       <c r="I123" s="8"/>
     </row>
     <row r="124" spans="1:9" ht="21" customHeight="1">
-      <c r="A124" s="74"/>
+      <c r="A124" s="59"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -13964,7 +13905,7 @@
       <c r="I124" s="8"/>
     </row>
     <row r="125" spans="1:9" ht="21" customHeight="1">
-      <c r="A125" s="74"/>
+      <c r="A125" s="59"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -13975,7 +13916,7 @@
       <c r="I125" s="8"/>
     </row>
     <row r="126" spans="1:9" ht="21" customHeight="1">
-      <c r="A126" s="74"/>
+      <c r="A126" s="59"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -13986,7 +13927,7 @@
       <c r="I126" s="8"/>
     </row>
     <row r="127" spans="1:9" ht="21" customHeight="1">
-      <c r="A127" s="74"/>
+      <c r="A127" s="59"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
@@ -13997,7 +13938,7 @@
       <c r="I127" s="8"/>
     </row>
     <row r="128" spans="1:9" ht="21" customHeight="1">
-      <c r="A128" s="74"/>
+      <c r="A128" s="59"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
@@ -14008,7 +13949,7 @@
       <c r="I128" s="8"/>
     </row>
     <row r="129" spans="1:9" ht="21" customHeight="1">
-      <c r="A129" s="74"/>
+      <c r="A129" s="59"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -14019,7 +13960,7 @@
       <c r="I129" s="8"/>
     </row>
     <row r="130" spans="1:9" ht="21" customHeight="1">
-      <c r="A130" s="74"/>
+      <c r="A130" s="59"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -14030,7 +13971,7 @@
       <c r="I130" s="8"/>
     </row>
     <row r="131" spans="1:9" ht="21" customHeight="1">
-      <c r="A131" s="74"/>
+      <c r="A131" s="59"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -14041,7 +13982,7 @@
       <c r="I131" s="8"/>
     </row>
     <row r="132" spans="1:9" ht="21" customHeight="1">
-      <c r="A132" s="74"/>
+      <c r="A132" s="59"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -14052,7 +13993,7 @@
       <c r="I132" s="8"/>
     </row>
     <row r="133" spans="1:9" ht="21" customHeight="1">
-      <c r="A133" s="74"/>
+      <c r="A133" s="59"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -14063,7 +14004,7 @@
       <c r="I133" s="8"/>
     </row>
     <row r="134" spans="1:9" ht="21" customHeight="1">
-      <c r="A134" s="74"/>
+      <c r="A134" s="59"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -14074,7 +14015,7 @@
       <c r="I134" s="8"/>
     </row>
     <row r="135" spans="1:9" ht="21" customHeight="1">
-      <c r="A135" s="74"/>
+      <c r="A135" s="59"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -14099,7 +14040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -14111,54 +14052,54 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="52" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="52" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="52" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="52" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="52" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="52" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="52" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="52" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="52"/>
+    <col min="1" max="1" width="5.6328125" style="44" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" style="44" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" style="44" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="44" customWidth="1"/>
+    <col min="6" max="6" width="7.6328125" style="44" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" style="44" customWidth="1"/>
+    <col min="8" max="8" width="7.6328125" style="44" customWidth="1"/>
+    <col min="9" max="9" width="16.6328125" style="44" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="69" customFormat="1" ht="21" customHeight="1">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:9" s="78" customFormat="1" ht="21" customHeight="1">
+      <c r="A1" s="78" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="71" customFormat="1" ht="39.9" customHeight="1">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:9" s="56" customFormat="1" ht="39.9" customHeight="1">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="70" t="s">
-        <v>59</v>
+      <c r="F2" s="55" t="s">
+        <v>56</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="55" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.899999999999999" customHeight="1">
-      <c r="A3" s="75"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -14180,7 +14121,7 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="18.899999999999999" customHeight="1">
-      <c r="A5" s="76"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -14191,7 +14132,7 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="18.899999999999999" customHeight="1">
-      <c r="A6" s="76"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -14202,7 +14143,7 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1">
-      <c r="A7" s="76"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -14213,7 +14154,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="21" customHeight="1">
-      <c r="A8" s="76"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -14224,7 +14165,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="21" customHeight="1">
-      <c r="A9" s="76"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -14235,7 +14176,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="21" customHeight="1">
-      <c r="A10" s="76"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -14246,7 +14187,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="21" customHeight="1">
-      <c r="A11" s="76"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -14257,7 +14198,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="21" customHeight="1">
-      <c r="A12" s="76"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -14268,7 +14209,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="21" customHeight="1">
-      <c r="A13" s="76"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -14279,7 +14220,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="21" customHeight="1">
-      <c r="A14" s="76"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -14290,7 +14231,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="21" customHeight="1">
-      <c r="A15" s="76"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -14301,7 +14242,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="21" customHeight="1">
-      <c r="A16" s="76"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -14312,7 +14253,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="21" customHeight="1">
-      <c r="A17" s="76"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -14323,7 +14264,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="21" customHeight="1">
-      <c r="A18" s="76"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -14334,7 +14275,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="21" customHeight="1">
-      <c r="A19" s="76"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -14345,7 +14286,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" ht="21" customHeight="1">
-      <c r="A20" s="76"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -14356,7 +14297,7 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" ht="21" customHeight="1">
-      <c r="A21" s="76"/>
+      <c r="A21" s="61"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -14367,7 +14308,7 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9" ht="21" customHeight="1">
-      <c r="A22" s="76"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -14378,7 +14319,7 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" ht="21" customHeight="1">
-      <c r="A23" s="76"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -14389,7 +14330,7 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" ht="21" customHeight="1">
-      <c r="A24" s="76"/>
+      <c r="A24" s="61"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -14400,7 +14341,7 @@
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9" ht="21" customHeight="1">
-      <c r="A25" s="76"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -14411,7 +14352,7 @@
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9" ht="21" customHeight="1">
-      <c r="A26" s="76"/>
+      <c r="A26" s="61"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -14422,7 +14363,7 @@
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" ht="21" customHeight="1">
-      <c r="A27" s="76"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -14433,7 +14374,7 @@
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" ht="21" customHeight="1">
-      <c r="A28" s="76"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -14444,7 +14385,7 @@
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" ht="21" customHeight="1">
-      <c r="A29" s="76"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -14455,7 +14396,7 @@
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:9" ht="21" customHeight="1">
-      <c r="A30" s="76"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -14466,7 +14407,7 @@
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:9" ht="21" customHeight="1">
-      <c r="A31" s="76"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -14477,7 +14418,7 @@
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" ht="21" customHeight="1">
-      <c r="A32" s="76"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -14488,7 +14429,7 @@
       <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9" ht="21" customHeight="1">
-      <c r="A33" s="76"/>
+      <c r="A33" s="61"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -14499,7 +14440,7 @@
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" ht="21" customHeight="1">
-      <c r="A34" s="76"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -14510,7 +14451,7 @@
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9" ht="21" customHeight="1">
-      <c r="A35" s="76"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -14521,7 +14462,7 @@
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="1:9" ht="21" customHeight="1">
-      <c r="A36" s="76"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -14532,7 +14473,7 @@
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="1:9" ht="21" customHeight="1">
-      <c r="A37" s="76"/>
+      <c r="A37" s="61"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -14543,7 +14484,7 @@
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="1:9" ht="21" customHeight="1">
-      <c r="A38" s="76"/>
+      <c r="A38" s="61"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -14554,7 +14495,7 @@
       <c r="I38" s="8"/>
     </row>
     <row r="39" spans="1:9" ht="21" customHeight="1">
-      <c r="A39" s="76"/>
+      <c r="A39" s="61"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -14565,7 +14506,7 @@
       <c r="I39" s="8"/>
     </row>
     <row r="40" spans="1:9" ht="21" customHeight="1">
-      <c r="A40" s="76"/>
+      <c r="A40" s="61"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -14576,7 +14517,7 @@
       <c r="I40" s="8"/>
     </row>
     <row r="41" spans="1:9" ht="21" customHeight="1">
-      <c r="A41" s="76"/>
+      <c r="A41" s="61"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -14587,7 +14528,7 @@
       <c r="I41" s="8"/>
     </row>
     <row r="42" spans="1:9" ht="21" customHeight="1">
-      <c r="A42" s="76"/>
+      <c r="A42" s="61"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -14598,7 +14539,7 @@
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:9" ht="21" customHeight="1">
-      <c r="A43" s="76"/>
+      <c r="A43" s="61"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -14609,7 +14550,7 @@
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="1:9" ht="21" customHeight="1">
-      <c r="A44" s="76"/>
+      <c r="A44" s="61"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -14620,7 +14561,7 @@
       <c r="I44" s="8"/>
     </row>
     <row r="45" spans="1:9" ht="21" customHeight="1">
-      <c r="A45" s="76"/>
+      <c r="A45" s="61"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -14631,7 +14572,7 @@
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:9" ht="21" customHeight="1">
-      <c r="A46" s="76"/>
+      <c r="A46" s="61"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -14642,7 +14583,7 @@
       <c r="I46" s="8"/>
     </row>
     <row r="47" spans="1:9" ht="21" customHeight="1">
-      <c r="A47" s="76"/>
+      <c r="A47" s="61"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -14653,7 +14594,7 @@
       <c r="I47" s="8"/>
     </row>
     <row r="48" spans="1:9" ht="21" customHeight="1">
-      <c r="A48" s="76"/>
+      <c r="A48" s="61"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -14664,7 +14605,7 @@
       <c r="I48" s="8"/>
     </row>
     <row r="49" spans="1:9" ht="21" customHeight="1">
-      <c r="A49" s="76"/>
+      <c r="A49" s="61"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -14675,7 +14616,7 @@
       <c r="I49" s="8"/>
     </row>
     <row r="50" spans="1:9" ht="21" customHeight="1">
-      <c r="A50" s="76"/>
+      <c r="A50" s="61"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -14686,7 +14627,7 @@
       <c r="I50" s="8"/>
     </row>
     <row r="51" spans="1:9" ht="21" customHeight="1">
-      <c r="A51" s="76"/>
+      <c r="A51" s="61"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -14697,7 +14638,7 @@
       <c r="I51" s="8"/>
     </row>
     <row r="52" spans="1:9" ht="21" customHeight="1">
-      <c r="A52" s="76"/>
+      <c r="A52" s="61"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -14708,7 +14649,7 @@
       <c r="I52" s="8"/>
     </row>
     <row r="53" spans="1:9" ht="21" customHeight="1">
-      <c r="A53" s="76"/>
+      <c r="A53" s="61"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -14719,7 +14660,7 @@
       <c r="I53" s="8"/>
     </row>
     <row r="54" spans="1:9" ht="21" customHeight="1">
-      <c r="A54" s="76"/>
+      <c r="A54" s="61"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -14730,7 +14671,7 @@
       <c r="I54" s="8"/>
     </row>
     <row r="55" spans="1:9" ht="21" customHeight="1">
-      <c r="A55" s="76"/>
+      <c r="A55" s="61"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -14741,7 +14682,7 @@
       <c r="I55" s="8"/>
     </row>
     <row r="56" spans="1:9" ht="21" customHeight="1">
-      <c r="A56" s="76"/>
+      <c r="A56" s="61"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -14752,7 +14693,7 @@
       <c r="I56" s="8"/>
     </row>
     <row r="57" spans="1:9" ht="21" customHeight="1">
-      <c r="A57" s="76"/>
+      <c r="A57" s="61"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -14763,7 +14704,7 @@
       <c r="I57" s="8"/>
     </row>
     <row r="58" spans="1:9" ht="21" customHeight="1">
-      <c r="A58" s="76"/>
+      <c r="A58" s="61"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -14774,7 +14715,7 @@
       <c r="I58" s="8"/>
     </row>
     <row r="59" spans="1:9" ht="21" customHeight="1">
-      <c r="A59" s="76"/>
+      <c r="A59" s="61"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -14785,7 +14726,7 @@
       <c r="I59" s="8"/>
     </row>
     <row r="60" spans="1:9" ht="21" customHeight="1">
-      <c r="A60" s="76"/>
+      <c r="A60" s="61"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -14796,7 +14737,7 @@
       <c r="I60" s="8"/>
     </row>
     <row r="61" spans="1:9" ht="21" customHeight="1">
-      <c r="A61" s="76"/>
+      <c r="A61" s="61"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -14807,7 +14748,7 @@
       <c r="I61" s="8"/>
     </row>
     <row r="62" spans="1:9" ht="21" customHeight="1">
-      <c r="A62" s="76"/>
+      <c r="A62" s="61"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -14818,7 +14759,7 @@
       <c r="I62" s="8"/>
     </row>
     <row r="63" spans="1:9" ht="21" customHeight="1">
-      <c r="A63" s="76"/>
+      <c r="A63" s="61"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -14829,7 +14770,7 @@
       <c r="I63" s="8"/>
     </row>
     <row r="64" spans="1:9" ht="21" customHeight="1">
-      <c r="A64" s="76"/>
+      <c r="A64" s="61"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -14840,7 +14781,7 @@
       <c r="I64" s="8"/>
     </row>
     <row r="65" spans="1:9" ht="21" customHeight="1">
-      <c r="A65" s="76"/>
+      <c r="A65" s="61"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -14851,7 +14792,7 @@
       <c r="I65" s="8"/>
     </row>
     <row r="66" spans="1:9" ht="21" customHeight="1">
-      <c r="A66" s="76"/>
+      <c r="A66" s="61"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -14862,7 +14803,7 @@
       <c r="I66" s="8"/>
     </row>
     <row r="67" spans="1:9" ht="21" customHeight="1">
-      <c r="A67" s="76"/>
+      <c r="A67" s="61"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -14873,7 +14814,7 @@
       <c r="I67" s="8"/>
     </row>
     <row r="68" spans="1:9" ht="21" customHeight="1">
-      <c r="A68" s="76"/>
+      <c r="A68" s="61"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -14884,7 +14825,7 @@
       <c r="I68" s="8"/>
     </row>
     <row r="69" spans="1:9" ht="21" customHeight="1">
-      <c r="A69" s="76"/>
+      <c r="A69" s="61"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -14895,7 +14836,7 @@
       <c r="I69" s="8"/>
     </row>
     <row r="70" spans="1:9" ht="21" customHeight="1">
-      <c r="A70" s="76"/>
+      <c r="A70" s="61"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -14906,7 +14847,7 @@
       <c r="I70" s="8"/>
     </row>
     <row r="71" spans="1:9" ht="21" customHeight="1">
-      <c r="A71" s="76"/>
+      <c r="A71" s="61"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -14917,7 +14858,7 @@
       <c r="I71" s="8"/>
     </row>
     <row r="72" spans="1:9" ht="21" customHeight="1">
-      <c r="A72" s="76"/>
+      <c r="A72" s="61"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -14928,7 +14869,7 @@
       <c r="I72" s="8"/>
     </row>
     <row r="73" spans="1:9" ht="21" customHeight="1">
-      <c r="A73" s="76"/>
+      <c r="A73" s="61"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -14939,7 +14880,7 @@
       <c r="I73" s="8"/>
     </row>
     <row r="74" spans="1:9" ht="21" customHeight="1">
-      <c r="A74" s="76"/>
+      <c r="A74" s="61"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -14950,7 +14891,7 @@
       <c r="I74" s="8"/>
     </row>
     <row r="75" spans="1:9" ht="21" customHeight="1">
-      <c r="A75" s="76"/>
+      <c r="A75" s="61"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -14961,7 +14902,7 @@
       <c r="I75" s="8"/>
     </row>
     <row r="76" spans="1:9" ht="21" customHeight="1">
-      <c r="A76" s="76"/>
+      <c r="A76" s="61"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -14972,7 +14913,7 @@
       <c r="I76" s="8"/>
     </row>
     <row r="77" spans="1:9" ht="21" customHeight="1">
-      <c r="A77" s="76"/>
+      <c r="A77" s="61"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -14983,7 +14924,7 @@
       <c r="I77" s="8"/>
     </row>
     <row r="78" spans="1:9" ht="21" customHeight="1">
-      <c r="A78" s="76"/>
+      <c r="A78" s="61"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -14994,7 +14935,7 @@
       <c r="I78" s="8"/>
     </row>
     <row r="79" spans="1:9" ht="21" customHeight="1">
-      <c r="A79" s="76"/>
+      <c r="A79" s="61"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -15005,7 +14946,7 @@
       <c r="I79" s="8"/>
     </row>
     <row r="80" spans="1:9" ht="21" customHeight="1">
-      <c r="A80" s="76"/>
+      <c r="A80" s="61"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -15016,7 +14957,7 @@
       <c r="I80" s="8"/>
     </row>
     <row r="81" spans="1:9" ht="21" customHeight="1">
-      <c r="A81" s="76"/>
+      <c r="A81" s="61"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -15027,7 +14968,7 @@
       <c r="I81" s="8"/>
     </row>
     <row r="82" spans="1:9" ht="21" customHeight="1">
-      <c r="A82" s="76"/>
+      <c r="A82" s="61"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -15038,7 +14979,7 @@
       <c r="I82" s="8"/>
     </row>
     <row r="83" spans="1:9" ht="21" customHeight="1">
-      <c r="A83" s="76"/>
+      <c r="A83" s="61"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -15049,7 +14990,7 @@
       <c r="I83" s="8"/>
     </row>
     <row r="84" spans="1:9" ht="21" customHeight="1">
-      <c r="A84" s="76"/>
+      <c r="A84" s="61"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -15060,7 +15001,7 @@
       <c r="I84" s="8"/>
     </row>
     <row r="85" spans="1:9" ht="21" customHeight="1">
-      <c r="A85" s="76"/>
+      <c r="A85" s="61"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -15071,7 +15012,7 @@
       <c r="I85" s="8"/>
     </row>
     <row r="86" spans="1:9" ht="21" customHeight="1">
-      <c r="A86" s="76"/>
+      <c r="A86" s="61"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -15082,7 +15023,7 @@
       <c r="I86" s="8"/>
     </row>
     <row r="87" spans="1:9" ht="21" customHeight="1">
-      <c r="A87" s="76"/>
+      <c r="A87" s="61"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -15093,7 +15034,7 @@
       <c r="I87" s="8"/>
     </row>
     <row r="88" spans="1:9" ht="21" customHeight="1">
-      <c r="A88" s="76"/>
+      <c r="A88" s="61"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -15104,7 +15045,7 @@
       <c r="I88" s="8"/>
     </row>
     <row r="89" spans="1:9" ht="21" customHeight="1">
-      <c r="A89" s="76"/>
+      <c r="A89" s="61"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -15115,7 +15056,7 @@
       <c r="I89" s="8"/>
     </row>
     <row r="90" spans="1:9" ht="21" customHeight="1">
-      <c r="A90" s="76"/>
+      <c r="A90" s="61"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -15126,7 +15067,7 @@
       <c r="I90" s="8"/>
     </row>
     <row r="91" spans="1:9" ht="21" customHeight="1">
-      <c r="A91" s="76"/>
+      <c r="A91" s="61"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -15137,7 +15078,7 @@
       <c r="I91" s="8"/>
     </row>
     <row r="92" spans="1:9" ht="21" customHeight="1">
-      <c r="A92" s="76"/>
+      <c r="A92" s="61"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -15148,7 +15089,7 @@
       <c r="I92" s="8"/>
     </row>
     <row r="93" spans="1:9" ht="21" customHeight="1">
-      <c r="A93" s="76"/>
+      <c r="A93" s="61"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -15159,7 +15100,7 @@
       <c r="I93" s="8"/>
     </row>
     <row r="94" spans="1:9" ht="21" customHeight="1">
-      <c r="A94" s="76"/>
+      <c r="A94" s="61"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -15170,7 +15111,7 @@
       <c r="I94" s="8"/>
     </row>
     <row r="95" spans="1:9" ht="21" customHeight="1">
-      <c r="A95" s="76"/>
+      <c r="A95" s="61"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -15181,7 +15122,7 @@
       <c r="I95" s="8"/>
     </row>
     <row r="96" spans="1:9" ht="21" customHeight="1">
-      <c r="A96" s="76"/>
+      <c r="A96" s="61"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -15192,7 +15133,7 @@
       <c r="I96" s="8"/>
     </row>
     <row r="97" spans="1:9" ht="21" customHeight="1">
-      <c r="A97" s="76"/>
+      <c r="A97" s="61"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -15203,7 +15144,7 @@
       <c r="I97" s="8"/>
     </row>
     <row r="98" spans="1:9" ht="21" customHeight="1">
-      <c r="A98" s="76"/>
+      <c r="A98" s="61"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -15214,7 +15155,7 @@
       <c r="I98" s="8"/>
     </row>
     <row r="99" spans="1:9" ht="21" customHeight="1">
-      <c r="A99" s="76"/>
+      <c r="A99" s="61"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -15225,7 +15166,7 @@
       <c r="I99" s="8"/>
     </row>
     <row r="100" spans="1:9" ht="21" customHeight="1">
-      <c r="A100" s="76"/>
+      <c r="A100" s="61"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -15236,7 +15177,7 @@
       <c r="I100" s="8"/>
     </row>
     <row r="101" spans="1:9" ht="21" customHeight="1">
-      <c r="A101" s="76"/>
+      <c r="A101" s="61"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -15247,7 +15188,7 @@
       <c r="I101" s="8"/>
     </row>
     <row r="102" spans="1:9" ht="21" customHeight="1">
-      <c r="A102" s="76"/>
+      <c r="A102" s="61"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -15258,7 +15199,7 @@
       <c r="I102" s="8"/>
     </row>
     <row r="103" spans="1:9" ht="21" customHeight="1">
-      <c r="A103" s="76"/>
+      <c r="A103" s="61"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -15269,7 +15210,7 @@
       <c r="I103" s="8"/>
     </row>
     <row r="104" spans="1:9" ht="21" customHeight="1">
-      <c r="A104" s="76"/>
+      <c r="A104" s="61"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -15280,7 +15221,7 @@
       <c r="I104" s="8"/>
     </row>
     <row r="105" spans="1:9" ht="21" customHeight="1">
-      <c r="A105" s="76"/>
+      <c r="A105" s="61"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -15291,7 +15232,7 @@
       <c r="I105" s="8"/>
     </row>
     <row r="106" spans="1:9" ht="21" customHeight="1">
-      <c r="A106" s="76"/>
+      <c r="A106" s="61"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -15302,7 +15243,7 @@
       <c r="I106" s="8"/>
     </row>
     <row r="107" spans="1:9" ht="21" customHeight="1">
-      <c r="A107" s="76"/>
+      <c r="A107" s="61"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -15313,7 +15254,7 @@
       <c r="I107" s="8"/>
     </row>
     <row r="108" spans="1:9" ht="21" customHeight="1">
-      <c r="A108" s="76"/>
+      <c r="A108" s="61"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
@@ -15324,7 +15265,7 @@
       <c r="I108" s="8"/>
     </row>
     <row r="109" spans="1:9" ht="21" customHeight="1">
-      <c r="A109" s="76"/>
+      <c r="A109" s="61"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -15335,7 +15276,7 @@
       <c r="I109" s="8"/>
     </row>
     <row r="110" spans="1:9" ht="21" customHeight="1">
-      <c r="A110" s="76"/>
+      <c r="A110" s="61"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -15346,7 +15287,7 @@
       <c r="I110" s="8"/>
     </row>
     <row r="111" spans="1:9" ht="21" customHeight="1">
-      <c r="A111" s="76"/>
+      <c r="A111" s="61"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -15357,7 +15298,7 @@
       <c r="I111" s="8"/>
     </row>
     <row r="112" spans="1:9" ht="21" customHeight="1">
-      <c r="A112" s="76"/>
+      <c r="A112" s="61"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -15368,7 +15309,7 @@
       <c r="I112" s="8"/>
     </row>
     <row r="113" spans="1:9" ht="21" customHeight="1">
-      <c r="A113" s="76"/>
+      <c r="A113" s="61"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -15379,7 +15320,7 @@
       <c r="I113" s="8"/>
     </row>
     <row r="114" spans="1:9" ht="21" customHeight="1">
-      <c r="A114" s="76"/>
+      <c r="A114" s="61"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -15390,7 +15331,7 @@
       <c r="I114" s="8"/>
     </row>
     <row r="115" spans="1:9" ht="21" customHeight="1">
-      <c r="A115" s="76"/>
+      <c r="A115" s="61"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -15401,7 +15342,7 @@
       <c r="I115" s="8"/>
     </row>
     <row r="116" spans="1:9" ht="21" customHeight="1">
-      <c r="A116" s="76"/>
+      <c r="A116" s="61"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -15412,7 +15353,7 @@
       <c r="I116" s="8"/>
     </row>
     <row r="117" spans="1:9" ht="21" customHeight="1">
-      <c r="A117" s="76"/>
+      <c r="A117" s="61"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -15423,7 +15364,7 @@
       <c r="I117" s="8"/>
     </row>
     <row r="118" spans="1:9" ht="21" customHeight="1">
-      <c r="A118" s="76"/>
+      <c r="A118" s="61"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -15434,7 +15375,7 @@
       <c r="I118" s="8"/>
     </row>
     <row r="119" spans="1:9" ht="21" customHeight="1">
-      <c r="A119" s="76"/>
+      <c r="A119" s="61"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -15445,7 +15386,7 @@
       <c r="I119" s="8"/>
     </row>
     <row r="120" spans="1:9" ht="21" customHeight="1">
-      <c r="A120" s="76"/>
+      <c r="A120" s="61"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
@@ -15456,7 +15397,7 @@
       <c r="I120" s="8"/>
     </row>
     <row r="121" spans="1:9" ht="21" customHeight="1">
-      <c r="A121" s="76"/>
+      <c r="A121" s="61"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -15467,7 +15408,7 @@
       <c r="I121" s="8"/>
     </row>
     <row r="122" spans="1:9" ht="21" customHeight="1">
-      <c r="A122" s="76"/>
+      <c r="A122" s="61"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
@@ -15478,7 +15419,7 @@
       <c r="I122" s="8"/>
     </row>
     <row r="123" spans="1:9" ht="21" customHeight="1">
-      <c r="A123" s="76"/>
+      <c r="A123" s="61"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -15489,7 +15430,7 @@
       <c r="I123" s="8"/>
     </row>
     <row r="124" spans="1:9" ht="21" customHeight="1">
-      <c r="A124" s="76"/>
+      <c r="A124" s="61"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -15500,7 +15441,7 @@
       <c r="I124" s="8"/>
     </row>
     <row r="125" spans="1:9" ht="21" customHeight="1">
-      <c r="A125" s="76"/>
+      <c r="A125" s="61"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -15511,7 +15452,7 @@
       <c r="I125" s="8"/>
     </row>
     <row r="126" spans="1:9" ht="21" customHeight="1">
-      <c r="A126" s="76"/>
+      <c r="A126" s="61"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -15522,7 +15463,7 @@
       <c r="I126" s="8"/>
     </row>
     <row r="127" spans="1:9" ht="21" customHeight="1">
-      <c r="A127" s="76"/>
+      <c r="A127" s="61"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
@@ -15533,7 +15474,7 @@
       <c r="I127" s="8"/>
     </row>
     <row r="128" spans="1:9" ht="21" customHeight="1">
-      <c r="A128" s="76"/>
+      <c r="A128" s="61"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
@@ -15544,7 +15485,7 @@
       <c r="I128" s="8"/>
     </row>
     <row r="129" spans="1:9" ht="21" customHeight="1">
-      <c r="A129" s="76"/>
+      <c r="A129" s="61"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -15555,7 +15496,7 @@
       <c r="I129" s="8"/>
     </row>
     <row r="130" spans="1:9" ht="21" customHeight="1">
-      <c r="A130" s="76"/>
+      <c r="A130" s="61"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -15580,7 +15521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -15592,54 +15533,54 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="52" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="52" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="52" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="52" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="52" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="52" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="52" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="52" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="52"/>
+    <col min="1" max="1" width="5.6328125" style="44" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" style="44" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" style="44" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="44" customWidth="1"/>
+    <col min="6" max="6" width="7.6328125" style="44" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" style="44" customWidth="1"/>
+    <col min="8" max="8" width="7.6328125" style="44" customWidth="1"/>
+    <col min="9" max="9" width="16.6328125" style="44" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="69" customFormat="1" ht="21" customHeight="1">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:9" s="78" customFormat="1" ht="21" customHeight="1">
+      <c r="A1" s="78" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="71" customFormat="1" ht="39.9" customHeight="1">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:9" s="56" customFormat="1" ht="39.9" customHeight="1">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="70" t="s">
-        <v>59</v>
+      <c r="F2" s="55" t="s">
+        <v>56</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="70" t="s">
-        <v>61</v>
+      <c r="I2" s="55" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="53" customFormat="1" ht="21" customHeight="1">
-      <c r="A3" s="77"/>
+    <row r="3" spans="1:9" s="45" customFormat="1" ht="21" customHeight="1">
+      <c r="A3" s="62"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -15649,7 +15590,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" s="53" customFormat="1" ht="21" customHeight="1">
+    <row r="4" spans="1:9" s="45" customFormat="1" ht="21" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -15660,8 +15601,8 @@
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" s="53" customFormat="1" ht="21" customHeight="1">
-      <c r="A5" s="73"/>
+    <row r="5" spans="1:9" s="45" customFormat="1" ht="21" customHeight="1">
+      <c r="A5" s="58"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -15671,8 +15612,8 @@
       <c r="H5" s="7"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" s="53" customFormat="1" ht="21" customHeight="1">
-      <c r="A6" s="73"/>
+    <row r="6" spans="1:9" s="45" customFormat="1" ht="21" customHeight="1">
+      <c r="A6" s="58"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -15683,7 +15624,7 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1">
-      <c r="A7" s="73"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -15694,7 +15635,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="21" customHeight="1">
-      <c r="A8" s="73"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -15705,7 +15646,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="21" customHeight="1">
-      <c r="A9" s="73"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -15716,7 +15657,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="21" customHeight="1">
-      <c r="A10" s="73"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -15727,7 +15668,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="21" customHeight="1">
-      <c r="A11" s="73"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -15738,7 +15679,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="21" customHeight="1">
-      <c r="A12" s="73"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -15749,7 +15690,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="21" customHeight="1">
-      <c r="A13" s="73"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -15760,7 +15701,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="21" customHeight="1">
-      <c r="A14" s="73"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -15771,7 +15712,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="21" customHeight="1">
-      <c r="A15" s="73"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -15782,7 +15723,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="21" customHeight="1">
-      <c r="A16" s="73"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -15793,7 +15734,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="21" customHeight="1">
-      <c r="A17" s="73"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -15804,7 +15745,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="21" customHeight="1">
-      <c r="A18" s="73"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -15815,7 +15756,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="21" customHeight="1">
-      <c r="A19" s="73"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -15826,7 +15767,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" ht="21" customHeight="1">
-      <c r="A20" s="73"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -15837,7 +15778,7 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" ht="21" customHeight="1">
-      <c r="A21" s="73"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -15848,7 +15789,7 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9" ht="21" customHeight="1">
-      <c r="A22" s="73"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -15859,7 +15800,7 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" ht="21" customHeight="1">
-      <c r="A23" s="73"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -15870,7 +15811,7 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" ht="21" customHeight="1">
-      <c r="A24" s="73"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -15881,7 +15822,7 @@
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9" ht="21" customHeight="1">
-      <c r="A25" s="73"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -15892,7 +15833,7 @@
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9" ht="21" customHeight="1">
-      <c r="A26" s="73"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -15903,7 +15844,7 @@
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" ht="21" customHeight="1">
-      <c r="A27" s="73"/>
+      <c r="A27" s="58"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -15914,7 +15855,7 @@
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" ht="21" customHeight="1">
-      <c r="A28" s="73"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -15925,7 +15866,7 @@
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" ht="21" customHeight="1">
-      <c r="A29" s="73"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -15936,7 +15877,7 @@
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:9" ht="21" customHeight="1">
-      <c r="A30" s="73"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -15947,7 +15888,7 @@
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:9" ht="21" customHeight="1">
-      <c r="A31" s="73"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -15958,7 +15899,7 @@
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" ht="21" customHeight="1">
-      <c r="A32" s="73"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -15969,7 +15910,7 @@
       <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9" ht="21" customHeight="1">
-      <c r="A33" s="73"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -15980,7 +15921,7 @@
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" ht="21" customHeight="1">
-      <c r="A34" s="73"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -15991,7 +15932,7 @@
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9" ht="21" customHeight="1">
-      <c r="A35" s="73"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -16002,7 +15943,7 @@
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="1:9" ht="21" customHeight="1">
-      <c r="A36" s="73"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -16013,7 +15954,7 @@
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="1:9" ht="21" customHeight="1">
-      <c r="A37" s="73"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -16024,7 +15965,7 @@
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="1:9" ht="21" customHeight="1">
-      <c r="A38" s="73"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -16035,7 +15976,7 @@
       <c r="I38" s="8"/>
     </row>
     <row r="39" spans="1:9" ht="21" customHeight="1">
-      <c r="A39" s="73"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -16046,7 +15987,7 @@
       <c r="I39" s="8"/>
     </row>
     <row r="40" spans="1:9" ht="21" customHeight="1">
-      <c r="A40" s="73"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -16057,7 +15998,7 @@
       <c r="I40" s="8"/>
     </row>
     <row r="41" spans="1:9" ht="21" customHeight="1">
-      <c r="A41" s="73"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -16068,7 +16009,7 @@
       <c r="I41" s="8"/>
     </row>
     <row r="42" spans="1:9" ht="21" customHeight="1">
-      <c r="A42" s="73"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -16079,7 +16020,7 @@
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:9" ht="21" customHeight="1">
-      <c r="A43" s="73"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -16090,7 +16031,7 @@
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="1:9" ht="21" customHeight="1">
-      <c r="A44" s="73"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -16101,7 +16042,7 @@
       <c r="I44" s="8"/>
     </row>
     <row r="45" spans="1:9" ht="21" customHeight="1">
-      <c r="A45" s="73"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -16112,7 +16053,7 @@
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:9" ht="21" customHeight="1">
-      <c r="A46" s="73"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -16123,7 +16064,7 @@
       <c r="I46" s="8"/>
     </row>
     <row r="47" spans="1:9" ht="21" customHeight="1">
-      <c r="A47" s="73"/>
+      <c r="A47" s="58"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -16134,7 +16075,7 @@
       <c r="I47" s="8"/>
     </row>
     <row r="48" spans="1:9" ht="21" customHeight="1">
-      <c r="A48" s="73"/>
+      <c r="A48" s="58"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -16145,7 +16086,7 @@
       <c r="I48" s="8"/>
     </row>
     <row r="49" spans="1:9" ht="21" customHeight="1">
-      <c r="A49" s="73"/>
+      <c r="A49" s="58"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -16156,7 +16097,7 @@
       <c r="I49" s="8"/>
     </row>
     <row r="50" spans="1:9" ht="21" customHeight="1">
-      <c r="A50" s="73"/>
+      <c r="A50" s="58"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -16167,7 +16108,7 @@
       <c r="I50" s="8"/>
     </row>
     <row r="51" spans="1:9" ht="21" customHeight="1">
-      <c r="A51" s="73"/>
+      <c r="A51" s="58"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -16178,7 +16119,7 @@
       <c r="I51" s="8"/>
     </row>
     <row r="52" spans="1:9" ht="21" customHeight="1">
-      <c r="A52" s="73"/>
+      <c r="A52" s="58"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -16189,7 +16130,7 @@
       <c r="I52" s="8"/>
     </row>
     <row r="53" spans="1:9" ht="21" customHeight="1">
-      <c r="A53" s="73"/>
+      <c r="A53" s="58"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -16200,7 +16141,7 @@
       <c r="I53" s="8"/>
     </row>
     <row r="54" spans="1:9" ht="21" customHeight="1">
-      <c r="A54" s="73"/>
+      <c r="A54" s="58"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -16211,7 +16152,7 @@
       <c r="I54" s="8"/>
     </row>
     <row r="55" spans="1:9" ht="21" customHeight="1">
-      <c r="A55" s="73"/>
+      <c r="A55" s="58"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -16222,7 +16163,7 @@
       <c r="I55" s="8"/>
     </row>
     <row r="56" spans="1:9" ht="21" customHeight="1">
-      <c r="A56" s="73"/>
+      <c r="A56" s="58"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -16233,7 +16174,7 @@
       <c r="I56" s="8"/>
     </row>
     <row r="57" spans="1:9" ht="21" customHeight="1">
-      <c r="A57" s="73"/>
+      <c r="A57" s="58"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -16244,7 +16185,7 @@
       <c r="I57" s="8"/>
     </row>
     <row r="58" spans="1:9" ht="21" customHeight="1">
-      <c r="A58" s="73"/>
+      <c r="A58" s="58"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -16255,7 +16196,7 @@
       <c r="I58" s="8"/>
     </row>
     <row r="59" spans="1:9" ht="21" customHeight="1">
-      <c r="A59" s="73"/>
+      <c r="A59" s="58"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -16266,7 +16207,7 @@
       <c r="I59" s="8"/>
     </row>
     <row r="60" spans="1:9" ht="21" customHeight="1">
-      <c r="A60" s="73"/>
+      <c r="A60" s="58"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -16277,7 +16218,7 @@
       <c r="I60" s="8"/>
     </row>
     <row r="61" spans="1:9" ht="21" customHeight="1">
-      <c r="A61" s="73"/>
+      <c r="A61" s="58"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -16288,7 +16229,7 @@
       <c r="I61" s="8"/>
     </row>
     <row r="62" spans="1:9" ht="21" customHeight="1">
-      <c r="A62" s="73"/>
+      <c r="A62" s="58"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -16299,7 +16240,7 @@
       <c r="I62" s="8"/>
     </row>
     <row r="63" spans="1:9" ht="21" customHeight="1">
-      <c r="A63" s="73"/>
+      <c r="A63" s="58"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -16310,7 +16251,7 @@
       <c r="I63" s="8"/>
     </row>
     <row r="64" spans="1:9" ht="21" customHeight="1">
-      <c r="A64" s="73"/>
+      <c r="A64" s="58"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -16321,7 +16262,7 @@
       <c r="I64" s="8"/>
     </row>
     <row r="65" spans="1:9" ht="21" customHeight="1">
-      <c r="A65" s="73"/>
+      <c r="A65" s="58"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -16332,7 +16273,7 @@
       <c r="I65" s="8"/>
     </row>
     <row r="66" spans="1:9" ht="21" customHeight="1">
-      <c r="A66" s="73"/>
+      <c r="A66" s="58"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -16343,7 +16284,7 @@
       <c r="I66" s="8"/>
     </row>
     <row r="67" spans="1:9" ht="21" customHeight="1">
-      <c r="A67" s="73"/>
+      <c r="A67" s="58"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -16354,7 +16295,7 @@
       <c r="I67" s="8"/>
     </row>
     <row r="68" spans="1:9" ht="21" customHeight="1">
-      <c r="A68" s="73"/>
+      <c r="A68" s="58"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -16365,7 +16306,7 @@
       <c r="I68" s="8"/>
     </row>
     <row r="69" spans="1:9" ht="21" customHeight="1">
-      <c r="A69" s="73"/>
+      <c r="A69" s="58"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -16376,7 +16317,7 @@
       <c r="I69" s="8"/>
     </row>
     <row r="70" spans="1:9" ht="21" customHeight="1">
-      <c r="A70" s="73"/>
+      <c r="A70" s="58"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -16387,7 +16328,7 @@
       <c r="I70" s="8"/>
     </row>
     <row r="71" spans="1:9" ht="21" customHeight="1">
-      <c r="A71" s="73"/>
+      <c r="A71" s="58"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -16398,7 +16339,7 @@
       <c r="I71" s="8"/>
     </row>
     <row r="72" spans="1:9" ht="21" customHeight="1">
-      <c r="A72" s="73"/>
+      <c r="A72" s="58"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -16409,7 +16350,7 @@
       <c r="I72" s="8"/>
     </row>
     <row r="73" spans="1:9" ht="21" customHeight="1">
-      <c r="A73" s="73"/>
+      <c r="A73" s="58"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -16420,7 +16361,7 @@
       <c r="I73" s="8"/>
     </row>
     <row r="74" spans="1:9" ht="21" customHeight="1">
-      <c r="A74" s="73"/>
+      <c r="A74" s="58"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -16431,7 +16372,7 @@
       <c r="I74" s="8"/>
     </row>
     <row r="75" spans="1:9" ht="21" customHeight="1">
-      <c r="A75" s="73"/>
+      <c r="A75" s="58"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -16442,7 +16383,7 @@
       <c r="I75" s="8"/>
     </row>
     <row r="76" spans="1:9" ht="21" customHeight="1">
-      <c r="A76" s="73"/>
+      <c r="A76" s="58"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -16453,7 +16394,7 @@
       <c r="I76" s="8"/>
     </row>
     <row r="77" spans="1:9" ht="21" customHeight="1">
-      <c r="A77" s="73"/>
+      <c r="A77" s="58"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -16464,7 +16405,7 @@
       <c r="I77" s="8"/>
     </row>
     <row r="78" spans="1:9" ht="21" customHeight="1">
-      <c r="A78" s="73"/>
+      <c r="A78" s="58"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -16475,7 +16416,7 @@
       <c r="I78" s="8"/>
     </row>
     <row r="79" spans="1:9" ht="21" customHeight="1">
-      <c r="A79" s="73"/>
+      <c r="A79" s="58"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -16486,7 +16427,7 @@
       <c r="I79" s="8"/>
     </row>
     <row r="80" spans="1:9" ht="21" customHeight="1">
-      <c r="A80" s="73"/>
+      <c r="A80" s="58"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -16497,7 +16438,7 @@
       <c r="I80" s="8"/>
     </row>
     <row r="81" spans="1:9" ht="21" customHeight="1">
-      <c r="A81" s="73"/>
+      <c r="A81" s="58"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -16508,7 +16449,7 @@
       <c r="I81" s="8"/>
     </row>
     <row r="82" spans="1:9" ht="21" customHeight="1">
-      <c r="A82" s="73"/>
+      <c r="A82" s="58"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -16519,7 +16460,7 @@
       <c r="I82" s="8"/>
     </row>
     <row r="83" spans="1:9" ht="21" customHeight="1">
-      <c r="A83" s="73"/>
+      <c r="A83" s="58"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -16530,7 +16471,7 @@
       <c r="I83" s="8"/>
     </row>
     <row r="84" spans="1:9" ht="21" customHeight="1">
-      <c r="A84" s="73"/>
+      <c r="A84" s="58"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -16541,7 +16482,7 @@
       <c r="I84" s="8"/>
     </row>
     <row r="85" spans="1:9" ht="21" customHeight="1">
-      <c r="A85" s="73"/>
+      <c r="A85" s="58"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -16552,7 +16493,7 @@
       <c r="I85" s="8"/>
     </row>
     <row r="86" spans="1:9" ht="21" customHeight="1">
-      <c r="A86" s="73"/>
+      <c r="A86" s="58"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -16563,7 +16504,7 @@
       <c r="I86" s="8"/>
     </row>
     <row r="87" spans="1:9" ht="21" customHeight="1">
-      <c r="A87" s="73"/>
+      <c r="A87" s="58"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -16574,7 +16515,7 @@
       <c r="I87" s="8"/>
     </row>
     <row r="88" spans="1:9" ht="21" customHeight="1">
-      <c r="A88" s="73"/>
+      <c r="A88" s="58"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -16585,7 +16526,7 @@
       <c r="I88" s="8"/>
     </row>
     <row r="89" spans="1:9" ht="21" customHeight="1">
-      <c r="A89" s="73"/>
+      <c r="A89" s="58"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -16596,7 +16537,7 @@
       <c r="I89" s="8"/>
     </row>
     <row r="90" spans="1:9" ht="21" customHeight="1">
-      <c r="A90" s="73"/>
+      <c r="A90" s="58"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -16607,7 +16548,7 @@
       <c r="I90" s="8"/>
     </row>
     <row r="91" spans="1:9" ht="21" customHeight="1">
-      <c r="A91" s="73"/>
+      <c r="A91" s="58"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -16618,7 +16559,7 @@
       <c r="I91" s="8"/>
     </row>
     <row r="92" spans="1:9" ht="21" customHeight="1">
-      <c r="A92" s="73"/>
+      <c r="A92" s="58"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -16629,7 +16570,7 @@
       <c r="I92" s="8"/>
     </row>
     <row r="93" spans="1:9" ht="21" customHeight="1">
-      <c r="A93" s="73"/>
+      <c r="A93" s="58"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -16640,7 +16581,7 @@
       <c r="I93" s="8"/>
     </row>
     <row r="94" spans="1:9" ht="21" customHeight="1">
-      <c r="A94" s="73"/>
+      <c r="A94" s="58"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -16651,7 +16592,7 @@
       <c r="I94" s="8"/>
     </row>
     <row r="95" spans="1:9" ht="21" customHeight="1">
-      <c r="A95" s="73"/>
+      <c r="A95" s="58"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -16662,7 +16603,7 @@
       <c r="I95" s="8"/>
     </row>
     <row r="96" spans="1:9" ht="21" customHeight="1">
-      <c r="A96" s="73"/>
+      <c r="A96" s="58"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -16673,7 +16614,7 @@
       <c r="I96" s="8"/>
     </row>
     <row r="97" spans="1:9" ht="21" customHeight="1">
-      <c r="A97" s="73"/>
+      <c r="A97" s="58"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -16684,7 +16625,7 @@
       <c r="I97" s="8"/>
     </row>
     <row r="98" spans="1:9" ht="21" customHeight="1">
-      <c r="A98" s="73"/>
+      <c r="A98" s="58"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -16695,7 +16636,7 @@
       <c r="I98" s="8"/>
     </row>
     <row r="99" spans="1:9" ht="21" customHeight="1">
-      <c r="A99" s="73"/>
+      <c r="A99" s="58"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -16706,7 +16647,7 @@
       <c r="I99" s="8"/>
     </row>
     <row r="100" spans="1:9" ht="21" customHeight="1">
-      <c r="A100" s="73"/>
+      <c r="A100" s="58"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -16717,7 +16658,7 @@
       <c r="I100" s="8"/>
     </row>
     <row r="101" spans="1:9" ht="21" customHeight="1">
-      <c r="A101" s="73"/>
+      <c r="A101" s="58"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -16728,7 +16669,7 @@
       <c r="I101" s="8"/>
     </row>
     <row r="102" spans="1:9" ht="21" customHeight="1">
-      <c r="A102" s="73"/>
+      <c r="A102" s="58"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -16739,7 +16680,7 @@
       <c r="I102" s="8"/>
     </row>
     <row r="103" spans="1:9" ht="21" customHeight="1">
-      <c r="A103" s="73"/>
+      <c r="A103" s="58"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -16750,7 +16691,7 @@
       <c r="I103" s="8"/>
     </row>
     <row r="104" spans="1:9" ht="21" customHeight="1">
-      <c r="A104" s="73"/>
+      <c r="A104" s="58"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -16761,7 +16702,7 @@
       <c r="I104" s="8"/>
     </row>
     <row r="105" spans="1:9" ht="21" customHeight="1">
-      <c r="A105" s="73"/>
+      <c r="A105" s="58"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -16772,7 +16713,7 @@
       <c r="I105" s="8"/>
     </row>
     <row r="106" spans="1:9" ht="21" customHeight="1">
-      <c r="A106" s="73"/>
+      <c r="A106" s="58"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -16783,7 +16724,7 @@
       <c r="I106" s="8"/>
     </row>
     <row r="107" spans="1:9" ht="21" customHeight="1">
-      <c r="A107" s="73"/>
+      <c r="A107" s="58"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -16794,7 +16735,7 @@
       <c r="I107" s="8"/>
     </row>
     <row r="108" spans="1:9" ht="21" customHeight="1">
-      <c r="A108" s="73"/>
+      <c r="A108" s="58"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
@@ -16805,7 +16746,7 @@
       <c r="I108" s="8"/>
     </row>
     <row r="109" spans="1:9" ht="21" customHeight="1">
-      <c r="A109" s="73"/>
+      <c r="A109" s="58"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -16816,7 +16757,7 @@
       <c r="I109" s="8"/>
     </row>
     <row r="110" spans="1:9" ht="21" customHeight="1">
-      <c r="A110" s="73"/>
+      <c r="A110" s="58"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -16827,7 +16768,7 @@
       <c r="I110" s="8"/>
     </row>
     <row r="111" spans="1:9" ht="21" customHeight="1">
-      <c r="A111" s="73"/>
+      <c r="A111" s="58"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -16838,7 +16779,7 @@
       <c r="I111" s="8"/>
     </row>
     <row r="112" spans="1:9" ht="21" customHeight="1">
-      <c r="A112" s="73"/>
+      <c r="A112" s="58"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -16849,7 +16790,7 @@
       <c r="I112" s="8"/>
     </row>
     <row r="113" spans="1:9" ht="21" customHeight="1">
-      <c r="A113" s="73"/>
+      <c r="A113" s="58"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -16860,7 +16801,7 @@
       <c r="I113" s="8"/>
     </row>
     <row r="114" spans="1:9" ht="21" customHeight="1">
-      <c r="A114" s="73"/>
+      <c r="A114" s="58"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -16871,7 +16812,7 @@
       <c r="I114" s="8"/>
     </row>
     <row r="115" spans="1:9" ht="21" customHeight="1">
-      <c r="A115" s="73"/>
+      <c r="A115" s="58"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -16882,7 +16823,7 @@
       <c r="I115" s="8"/>
     </row>
     <row r="116" spans="1:9" ht="21" customHeight="1">
-      <c r="A116" s="73"/>
+      <c r="A116" s="58"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -16893,7 +16834,7 @@
       <c r="I116" s="8"/>
     </row>
     <row r="117" spans="1:9" ht="21" customHeight="1">
-      <c r="A117" s="73"/>
+      <c r="A117" s="58"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -16904,7 +16845,7 @@
       <c r="I117" s="8"/>
     </row>
     <row r="118" spans="1:9" ht="21" customHeight="1">
-      <c r="A118" s="73"/>
+      <c r="A118" s="58"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -16915,7 +16856,7 @@
       <c r="I118" s="8"/>
     </row>
     <row r="119" spans="1:9" ht="21" customHeight="1">
-      <c r="A119" s="73"/>
+      <c r="A119" s="58"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -16926,7 +16867,7 @@
       <c r="I119" s="8"/>
     </row>
     <row r="120" spans="1:9" ht="21" customHeight="1">
-      <c r="A120" s="73"/>
+      <c r="A120" s="58"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
@@ -16937,7 +16878,7 @@
       <c r="I120" s="8"/>
     </row>
     <row r="121" spans="1:9" ht="21" customHeight="1">
-      <c r="A121" s="73"/>
+      <c r="A121" s="58"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -16948,7 +16889,7 @@
       <c r="I121" s="8"/>
     </row>
     <row r="122" spans="1:9" ht="21" customHeight="1">
-      <c r="A122" s="73"/>
+      <c r="A122" s="58"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
@@ -16959,7 +16900,7 @@
       <c r="I122" s="8"/>
     </row>
     <row r="123" spans="1:9" ht="21" customHeight="1">
-      <c r="A123" s="73"/>
+      <c r="A123" s="58"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -16970,7 +16911,7 @@
       <c r="I123" s="8"/>
     </row>
     <row r="124" spans="1:9" ht="21" customHeight="1">
-      <c r="A124" s="73"/>
+      <c r="A124" s="58"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -16981,7 +16922,7 @@
       <c r="I124" s="8"/>
     </row>
     <row r="125" spans="1:9" ht="21" customHeight="1">
-      <c r="A125" s="73"/>
+      <c r="A125" s="58"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -16992,7 +16933,7 @@
       <c r="I125" s="8"/>
     </row>
     <row r="126" spans="1:9" ht="21" customHeight="1">
-      <c r="A126" s="73"/>
+      <c r="A126" s="58"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -17003,7 +16944,7 @@
       <c r="I126" s="8"/>
     </row>
     <row r="127" spans="1:9" ht="21" customHeight="1">
-      <c r="A127" s="73"/>
+      <c r="A127" s="58"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
@@ -17014,7 +16955,7 @@
       <c r="I127" s="8"/>
     </row>
     <row r="128" spans="1:9" ht="21" customHeight="1">
-      <c r="A128" s="73"/>
+      <c r="A128" s="58"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
@@ -17025,7 +16966,7 @@
       <c r="I128" s="8"/>
     </row>
     <row r="129" spans="1:9" ht="21" customHeight="1">
-      <c r="A129" s="73"/>
+      <c r="A129" s="58"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -17036,7 +16977,7 @@
       <c r="I129" s="8"/>
     </row>
     <row r="130" spans="1:9" ht="21" customHeight="1">
-      <c r="A130" s="73"/>
+      <c r="A130" s="58"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -17047,7 +16988,7 @@
       <c r="I130" s="8"/>
     </row>
     <row r="131" spans="1:9" ht="21" customHeight="1">
-      <c r="A131" s="73"/>
+      <c r="A131" s="58"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -17058,7 +16999,7 @@
       <c r="I131" s="8"/>
     </row>
     <row r="132" spans="1:9" ht="21" customHeight="1">
-      <c r="A132" s="73"/>
+      <c r="A132" s="58"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -17069,7 +17010,7 @@
       <c r="I132" s="8"/>
     </row>
     <row r="133" spans="1:9" ht="21" customHeight="1">
-      <c r="A133" s="73"/>
+      <c r="A133" s="58"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -17080,7 +17021,7 @@
       <c r="I133" s="8"/>
     </row>
     <row r="134" spans="1:9" ht="21" customHeight="1">
-      <c r="A134" s="73"/>
+      <c r="A134" s="58"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -17091,7 +17032,7 @@
       <c r="I134" s="8"/>
     </row>
     <row r="135" spans="1:9" ht="21" customHeight="1">
-      <c r="A135" s="73"/>
+      <c r="A135" s="58"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -17102,7 +17043,7 @@
       <c r="I135" s="8"/>
     </row>
     <row r="136" spans="1:9" ht="21" customHeight="1">
-      <c r="A136" s="73"/>
+      <c r="A136" s="58"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -17113,7 +17054,7 @@
       <c r="I136" s="8"/>
     </row>
     <row r="137" spans="1:9" ht="21" customHeight="1">
-      <c r="A137" s="73"/>
+      <c r="A137" s="58"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
@@ -17124,7 +17065,7 @@
       <c r="I137" s="8"/>
     </row>
     <row r="138" spans="1:9" ht="21" customHeight="1">
-      <c r="A138" s="73"/>
+      <c r="A138" s="58"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
@@ -17135,7 +17076,7 @@
       <c r="I138" s="8"/>
     </row>
     <row r="139" spans="1:9" ht="21" customHeight="1">
-      <c r="A139" s="73"/>
+      <c r="A139" s="58"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -17146,7 +17087,7 @@
       <c r="I139" s="8"/>
     </row>
     <row r="140" spans="1:9" ht="21" customHeight="1">
-      <c r="A140" s="73"/>
+      <c r="A140" s="58"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
@@ -17157,7 +17098,7 @@
       <c r="I140" s="8"/>
     </row>
     <row r="141" spans="1:9" ht="21" customHeight="1">
-      <c r="A141" s="73"/>
+      <c r="A141" s="58"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
@@ -17168,7 +17109,7 @@
       <c r="I141" s="8"/>
     </row>
     <row r="142" spans="1:9" ht="21" customHeight="1">
-      <c r="A142" s="73"/>
+      <c r="A142" s="58"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -17179,7 +17120,7 @@
       <c r="I142" s="8"/>
     </row>
     <row r="143" spans="1:9" ht="21" customHeight="1">
-      <c r="A143" s="73"/>
+      <c r="A143" s="58"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -17190,7 +17131,7 @@
       <c r="I143" s="8"/>
     </row>
     <row r="144" spans="1:9" ht="21" customHeight="1">
-      <c r="A144" s="73"/>
+      <c r="A144" s="58"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -17201,7 +17142,7 @@
       <c r="I144" s="8"/>
     </row>
     <row r="145" spans="1:9" ht="21" customHeight="1">
-      <c r="A145" s="73"/>
+      <c r="A145" s="58"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
@@ -17212,7 +17153,7 @@
       <c r="I145" s="8"/>
     </row>
     <row r="146" spans="1:9" ht="21" customHeight="1">
-      <c r="A146" s="73"/>
+      <c r="A146" s="58"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
@@ -17223,7 +17164,7 @@
       <c r="I146" s="8"/>
     </row>
     <row r="147" spans="1:9" ht="21" customHeight="1">
-      <c r="A147" s="73"/>
+      <c r="A147" s="58"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
@@ -17234,7 +17175,7 @@
       <c r="I147" s="8"/>
     </row>
     <row r="148" spans="1:9" ht="21" customHeight="1">
-      <c r="A148" s="73"/>
+      <c r="A148" s="58"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
@@ -17245,7 +17186,7 @@
       <c r="I148" s="8"/>
     </row>
     <row r="149" spans="1:9" ht="21" customHeight="1">
-      <c r="A149" s="73"/>
+      <c r="A149" s="58"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
@@ -17256,7 +17197,7 @@
       <c r="I149" s="8"/>
     </row>
     <row r="150" spans="1:9" ht="21" customHeight="1">
-      <c r="A150" s="73"/>
+      <c r="A150" s="58"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
@@ -17267,7 +17208,7 @@
       <c r="I150" s="8"/>
     </row>
     <row r="151" spans="1:9" ht="21" customHeight="1">
-      <c r="A151" s="73"/>
+      <c r="A151" s="58"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
@@ -17278,7 +17219,7 @@
       <c r="I151" s="8"/>
     </row>
     <row r="152" spans="1:9" ht="21" customHeight="1">
-      <c r="A152" s="73"/>
+      <c r="A152" s="58"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
@@ -17289,7 +17230,7 @@
       <c r="I152" s="8"/>
     </row>
     <row r="153" spans="1:9" ht="21" customHeight="1">
-      <c r="A153" s="73"/>
+      <c r="A153" s="58"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -17300,7 +17241,7 @@
       <c r="I153" s="8"/>
     </row>
     <row r="154" spans="1:9" ht="21" customHeight="1">
-      <c r="A154" s="73"/>
+      <c r="A154" s="58"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
@@ -17311,7 +17252,7 @@
       <c r="I154" s="8"/>
     </row>
     <row r="155" spans="1:9" ht="21" customHeight="1">
-      <c r="A155" s="73"/>
+      <c r="A155" s="58"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
@@ -17322,7 +17263,7 @@
       <c r="I155" s="8"/>
     </row>
     <row r="156" spans="1:9" ht="21" customHeight="1">
-      <c r="A156" s="73"/>
+      <c r="A156" s="58"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
@@ -17333,7 +17274,7 @@
       <c r="I156" s="8"/>
     </row>
     <row r="157" spans="1:9" ht="21" customHeight="1">
-      <c r="A157" s="73"/>
+      <c r="A157" s="58"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
@@ -17344,7 +17285,7 @@
       <c r="I157" s="8"/>
     </row>
     <row r="158" spans="1:9" ht="21" customHeight="1">
-      <c r="A158" s="73"/>
+      <c r="A158" s="58"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
@@ -17355,7 +17296,7 @@
       <c r="I158" s="8"/>
     </row>
     <row r="159" spans="1:9" ht="21" customHeight="1">
-      <c r="A159" s="73"/>
+      <c r="A159" s="58"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
@@ -17366,7 +17307,7 @@
       <c r="I159" s="8"/>
     </row>
     <row r="160" spans="1:9" ht="21" customHeight="1">
-      <c r="A160" s="73"/>
+      <c r="A160" s="58"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
@@ -17377,7 +17318,7 @@
       <c r="I160" s="8"/>
     </row>
     <row r="161" spans="1:9" ht="21" customHeight="1">
-      <c r="A161" s="73"/>
+      <c r="A161" s="58"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
@@ -17388,7 +17329,7 @@
       <c r="I161" s="8"/>
     </row>
     <row r="162" spans="1:9" ht="21" customHeight="1">
-      <c r="A162" s="73"/>
+      <c r="A162" s="58"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
@@ -17399,7 +17340,7 @@
       <c r="I162" s="8"/>
     </row>
     <row r="163" spans="1:9" ht="21" customHeight="1">
-      <c r="A163" s="73"/>
+      <c r="A163" s="58"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
@@ -17410,7 +17351,7 @@
       <c r="I163" s="8"/>
     </row>
     <row r="164" spans="1:9" ht="21" customHeight="1">
-      <c r="A164" s="73"/>
+      <c r="A164" s="58"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
@@ -17421,7 +17362,7 @@
       <c r="I164" s="8"/>
     </row>
     <row r="165" spans="1:9" ht="21" customHeight="1">
-      <c r="A165" s="73"/>
+      <c r="A165" s="58"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
@@ -17432,7 +17373,7 @@
       <c r="I165" s="8"/>
     </row>
     <row r="166" spans="1:9" ht="21" customHeight="1">
-      <c r="A166" s="73"/>
+      <c r="A166" s="58"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
@@ -17443,7 +17384,7 @@
       <c r="I166" s="8"/>
     </row>
     <row r="167" spans="1:9" ht="21" customHeight="1">
-      <c r="A167" s="73"/>
+      <c r="A167" s="58"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
@@ -17454,7 +17395,7 @@
       <c r="I167" s="8"/>
     </row>
     <row r="168" spans="1:9" ht="21" customHeight="1">
-      <c r="A168" s="73"/>
+      <c r="A168" s="58"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
@@ -17465,7 +17406,7 @@
       <c r="I168" s="8"/>
     </row>
     <row r="169" spans="1:9" ht="21" customHeight="1">
-      <c r="A169" s="73"/>
+      <c r="A169" s="58"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
@@ -17476,7 +17417,7 @@
       <c r="I169" s="8"/>
     </row>
     <row r="170" spans="1:9" ht="21" customHeight="1">
-      <c r="A170" s="73"/>
+      <c r="A170" s="58"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
@@ -17487,7 +17428,7 @@
       <c r="I170" s="8"/>
     </row>
     <row r="171" spans="1:9" ht="21" customHeight="1">
-      <c r="A171" s="73"/>
+      <c r="A171" s="58"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
@@ -17498,7 +17439,7 @@
       <c r="I171" s="8"/>
     </row>
     <row r="172" spans="1:9" ht="21" customHeight="1">
-      <c r="A172" s="73"/>
+      <c r="A172" s="58"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
@@ -17509,7 +17450,7 @@
       <c r="I172" s="8"/>
     </row>
     <row r="173" spans="1:9" ht="21" customHeight="1">
-      <c r="A173" s="73"/>
+      <c r="A173" s="58"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
@@ -17520,7 +17461,7 @@
       <c r="I173" s="8"/>
     </row>
     <row r="174" spans="1:9" ht="21" customHeight="1">
-      <c r="A174" s="73"/>
+      <c r="A174" s="58"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
@@ -17531,7 +17472,7 @@
       <c r="I174" s="8"/>
     </row>
     <row r="175" spans="1:9" ht="21" customHeight="1">
-      <c r="A175" s="73"/>
+      <c r="A175" s="58"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
@@ -17542,7 +17483,7 @@
       <c r="I175" s="8"/>
     </row>
     <row r="176" spans="1:9" ht="21" customHeight="1">
-      <c r="A176" s="73"/>
+      <c r="A176" s="58"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
@@ -17553,7 +17494,7 @@
       <c r="I176" s="8"/>
     </row>
     <row r="177" spans="1:9" ht="21" customHeight="1">
-      <c r="A177" s="73"/>
+      <c r="A177" s="58"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
@@ -17564,7 +17505,7 @@
       <c r="I177" s="8"/>
     </row>
     <row r="178" spans="1:9" ht="21" customHeight="1">
-      <c r="A178" s="73"/>
+      <c r="A178" s="58"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
       <c r="D178" s="6"/>
@@ -17575,7 +17516,7 @@
       <c r="I178" s="8"/>
     </row>
     <row r="179" spans="1:9" ht="21" customHeight="1">
-      <c r="A179" s="73"/>
+      <c r="A179" s="58"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
@@ -17586,7 +17527,7 @@
       <c r="I179" s="8"/>
     </row>
     <row r="180" spans="1:9" ht="21" customHeight="1">
-      <c r="A180" s="73"/>
+      <c r="A180" s="58"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
       <c r="D180" s="6"/>
@@ -17597,7 +17538,7 @@
       <c r="I180" s="8"/>
     </row>
     <row r="181" spans="1:9" ht="21" customHeight="1">
-      <c r="A181" s="73"/>
+      <c r="A181" s="58"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
       <c r="D181" s="6"/>
@@ -17608,7 +17549,7 @@
       <c r="I181" s="8"/>
     </row>
     <row r="182" spans="1:9" ht="21" customHeight="1">
-      <c r="A182" s="73"/>
+      <c r="A182" s="58"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
       <c r="D182" s="6"/>
@@ -17619,7 +17560,7 @@
       <c r="I182" s="8"/>
     </row>
     <row r="183" spans="1:9" ht="21" customHeight="1">
-      <c r="A183" s="73"/>
+      <c r="A183" s="58"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
@@ -17630,7 +17571,7 @@
       <c r="I183" s="8"/>
     </row>
     <row r="184" spans="1:9" ht="21" customHeight="1">
-      <c r="A184" s="73"/>
+      <c r="A184" s="58"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
       <c r="D184" s="6"/>
@@ -17641,7 +17582,7 @@
       <c r="I184" s="8"/>
     </row>
     <row r="185" spans="1:9" ht="21" customHeight="1">
-      <c r="A185" s="73"/>
+      <c r="A185" s="58"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
       <c r="D185" s="6"/>
@@ -17652,7 +17593,7 @@
       <c r="I185" s="8"/>
     </row>
     <row r="186" spans="1:9" ht="21" customHeight="1">
-      <c r="A186" s="73"/>
+      <c r="A186" s="58"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
       <c r="D186" s="6"/>
@@ -17663,7 +17604,7 @@
       <c r="I186" s="8"/>
     </row>
     <row r="187" spans="1:9" ht="21" customHeight="1">
-      <c r="A187" s="73"/>
+      <c r="A187" s="58"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
       <c r="D187" s="6"/>
@@ -17674,7 +17615,7 @@
       <c r="I187" s="8"/>
     </row>
     <row r="188" spans="1:9" ht="21" customHeight="1">
-      <c r="A188" s="73"/>
+      <c r="A188" s="58"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
       <c r="D188" s="6"/>
@@ -17685,7 +17626,7 @@
       <c r="I188" s="8"/>
     </row>
     <row r="189" spans="1:9" ht="21" customHeight="1">
-      <c r="A189" s="73"/>
+      <c r="A189" s="58"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
@@ -17696,7 +17637,7 @@
       <c r="I189" s="8"/>
     </row>
     <row r="190" spans="1:9" ht="21" customHeight="1">
-      <c r="A190" s="73"/>
+      <c r="A190" s="58"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
       <c r="D190" s="6"/>
@@ -17707,7 +17648,7 @@
       <c r="I190" s="8"/>
     </row>
     <row r="191" spans="1:9" ht="21" customHeight="1">
-      <c r="A191" s="73"/>
+      <c r="A191" s="58"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
       <c r="D191" s="6"/>
@@ -17718,7 +17659,7 @@
       <c r="I191" s="8"/>
     </row>
     <row r="192" spans="1:9" ht="21" customHeight="1">
-      <c r="A192" s="73"/>
+      <c r="A192" s="58"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
       <c r="D192" s="6"/>
@@ -17729,7 +17670,7 @@
       <c r="I192" s="8"/>
     </row>
     <row r="193" spans="1:9" ht="21" customHeight="1">
-      <c r="A193" s="73"/>
+      <c r="A193" s="58"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
       <c r="D193" s="6"/>
@@ -17740,7 +17681,7 @@
       <c r="I193" s="8"/>
     </row>
     <row r="194" spans="1:9" ht="21" customHeight="1">
-      <c r="A194" s="73"/>
+      <c r="A194" s="58"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
@@ -17751,7 +17692,7 @@
       <c r="I194" s="8"/>
     </row>
     <row r="195" spans="1:9" ht="21" customHeight="1">
-      <c r="A195" s="73"/>
+      <c r="A195" s="58"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
@@ -17762,7 +17703,7 @@
       <c r="I195" s="8"/>
     </row>
     <row r="196" spans="1:9" ht="21" customHeight="1">
-      <c r="A196" s="73"/>
+      <c r="A196" s="58"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
@@ -17773,7 +17714,7 @@
       <c r="I196" s="8"/>
     </row>
     <row r="197" spans="1:9" ht="21" customHeight="1">
-      <c r="A197" s="73"/>
+      <c r="A197" s="58"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
@@ -17784,7 +17725,7 @@
       <c r="I197" s="8"/>
     </row>
     <row r="198" spans="1:9" ht="21" customHeight="1">
-      <c r="A198" s="73"/>
+      <c r="A198" s="58"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
@@ -17795,7 +17736,7 @@
       <c r="I198" s="8"/>
     </row>
     <row r="199" spans="1:9" ht="21" customHeight="1">
-      <c r="A199" s="73"/>
+      <c r="A199" s="58"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
@@ -17806,7 +17747,7 @@
       <c r="I199" s="8"/>
     </row>
     <row r="200" spans="1:9" ht="21" customHeight="1">
-      <c r="A200" s="73"/>
+      <c r="A200" s="58"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
@@ -17817,7 +17758,7 @@
       <c r="I200" s="8"/>
     </row>
     <row r="201" spans="1:9" ht="21" customHeight="1">
-      <c r="A201" s="73"/>
+      <c r="A201" s="58"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
       <c r="D201" s="6"/>
@@ -17828,7 +17769,7 @@
       <c r="I201" s="8"/>
     </row>
     <row r="202" spans="1:9" ht="21" customHeight="1">
-      <c r="A202" s="73"/>
+      <c r="A202" s="58"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
@@ -17839,7 +17780,7 @@
       <c r="I202" s="8"/>
     </row>
     <row r="203" spans="1:9" ht="21" customHeight="1">
-      <c r="A203" s="73"/>
+      <c r="A203" s="58"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
       <c r="D203" s="6"/>
@@ -17850,7 +17791,7 @@
       <c r="I203" s="8"/>
     </row>
     <row r="204" spans="1:9" ht="21" customHeight="1">
-      <c r="A204" s="73"/>
+      <c r="A204" s="58"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
       <c r="D204" s="6"/>
@@ -17861,7 +17802,7 @@
       <c r="I204" s="8"/>
     </row>
     <row r="205" spans="1:9" ht="21" customHeight="1">
-      <c r="A205" s="73"/>
+      <c r="A205" s="58"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
       <c r="D205" s="6"/>
@@ -17872,7 +17813,7 @@
       <c r="I205" s="8"/>
     </row>
     <row r="206" spans="1:9" ht="21" customHeight="1">
-      <c r="A206" s="73"/>
+      <c r="A206" s="58"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
       <c r="D206" s="6"/>
@@ -17883,7 +17824,7 @@
       <c r="I206" s="8"/>
     </row>
     <row r="207" spans="1:9" ht="21" customHeight="1">
-      <c r="A207" s="73"/>
+      <c r="A207" s="58"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
       <c r="D207" s="6"/>
@@ -17894,7 +17835,7 @@
       <c r="I207" s="8"/>
     </row>
     <row r="208" spans="1:9" ht="21" customHeight="1">
-      <c r="A208" s="73"/>
+      <c r="A208" s="58"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
@@ -17905,7 +17846,7 @@
       <c r="I208" s="8"/>
     </row>
     <row r="209" spans="1:9" ht="21" customHeight="1">
-      <c r="A209" s="73"/>
+      <c r="A209" s="58"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
       <c r="D209" s="6"/>
@@ -17916,7 +17857,7 @@
       <c r="I209" s="8"/>
     </row>
     <row r="210" spans="1:9" ht="21" customHeight="1">
-      <c r="A210" s="73"/>
+      <c r="A210" s="58"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
       <c r="D210" s="6"/>
@@ -17927,7 +17868,7 @@
       <c r="I210" s="8"/>
     </row>
     <row r="211" spans="1:9" ht="21" customHeight="1">
-      <c r="A211" s="73"/>
+      <c r="A211" s="58"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
       <c r="D211" s="6"/>
@@ -17938,7 +17879,7 @@
       <c r="I211" s="8"/>
     </row>
     <row r="212" spans="1:9" ht="21" customHeight="1">
-      <c r="A212" s="73"/>
+      <c r="A212" s="58"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
       <c r="D212" s="6"/>
@@ -17949,7 +17890,7 @@
       <c r="I212" s="8"/>
     </row>
     <row r="213" spans="1:9" ht="21" customHeight="1">
-      <c r="A213" s="73"/>
+      <c r="A213" s="58"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
       <c r="D213" s="6"/>
@@ -17960,7 +17901,7 @@
       <c r="I213" s="8"/>
     </row>
     <row r="214" spans="1:9" ht="21" customHeight="1">
-      <c r="A214" s="73"/>
+      <c r="A214" s="58"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
       <c r="D214" s="6"/>
@@ -17985,7 +17926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -17997,54 +17938,54 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="52" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="52" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="52" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="52" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="52" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="52" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="52" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="52"/>
+    <col min="1" max="1" width="5.453125" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" style="44" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" style="44" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="44" customWidth="1"/>
+    <col min="6" max="6" width="7.6328125" style="44" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" style="44" customWidth="1"/>
+    <col min="8" max="8" width="7.6328125" style="44" customWidth="1"/>
+    <col min="9" max="9" width="16.6328125" style="44" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="69" customFormat="1" ht="21" customHeight="1">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:9" s="78" customFormat="1" ht="21" customHeight="1">
+      <c r="A1" s="78" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="71" customFormat="1" ht="39.9" customHeight="1">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:9" s="56" customFormat="1" ht="39.9" customHeight="1">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="70" t="s">
-        <v>63</v>
+      <c r="F2" s="55" t="s">
+        <v>59</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="70" t="s">
-        <v>61</v>
+      <c r="I2" s="55" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="53" customFormat="1" ht="21" customHeight="1">
-      <c r="A3" s="77"/>
+    <row r="3" spans="1:9" s="45" customFormat="1" ht="21" customHeight="1">
+      <c r="A3" s="62"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -18054,7 +17995,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" s="53" customFormat="1" ht="21" customHeight="1">
+    <row r="4" spans="1:9" s="45" customFormat="1" ht="21" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -18065,8 +18006,8 @@
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" s="53" customFormat="1" ht="21" customHeight="1">
-      <c r="A5" s="73"/>
+    <row r="5" spans="1:9" s="45" customFormat="1" ht="21" customHeight="1">
+      <c r="A5" s="58"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -18076,8 +18017,8 @@
       <c r="H5" s="7"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" s="53" customFormat="1" ht="21" customHeight="1">
-      <c r="A6" s="73"/>
+    <row r="6" spans="1:9" s="45" customFormat="1" ht="21" customHeight="1">
+      <c r="A6" s="58"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -18087,8 +18028,8 @@
       <c r="H6" s="7"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" s="53" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="73"/>
+    <row r="7" spans="1:9" s="45" customFormat="1" ht="21" customHeight="1">
+      <c r="A7" s="58"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -18099,7 +18040,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="21" customHeight="1">
-      <c r="A8" s="73"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -18110,7 +18051,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="21" customHeight="1">
-      <c r="A9" s="73"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -18121,7 +18062,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="21" customHeight="1">
-      <c r="A10" s="73"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -18132,7 +18073,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="21" customHeight="1">
-      <c r="A11" s="73"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -18143,7 +18084,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="21" customHeight="1">
-      <c r="A12" s="73"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -18154,7 +18095,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="21" customHeight="1">
-      <c r="A13" s="73"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -18165,7 +18106,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="21" customHeight="1">
-      <c r="A14" s="73"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -18176,7 +18117,7 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="21" customHeight="1">
-      <c r="A15" s="73"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -18187,7 +18128,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="21" customHeight="1">
-      <c r="A16" s="73"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -18198,7 +18139,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="21" customHeight="1">
-      <c r="A17" s="73"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -18209,7 +18150,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="21" customHeight="1">
-      <c r="A18" s="73"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -18220,7 +18161,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="21" customHeight="1">
-      <c r="A19" s="73"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -18231,7 +18172,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" ht="21" customHeight="1">
-      <c r="A20" s="73"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -18242,7 +18183,7 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" ht="21" customHeight="1">
-      <c r="A21" s="73"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -18253,7 +18194,7 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9" ht="21" customHeight="1">
-      <c r="A22" s="73"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -18264,7 +18205,7 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" ht="21" customHeight="1">
-      <c r="A23" s="73"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -18275,7 +18216,7 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" ht="21" customHeight="1">
-      <c r="A24" s="73"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -18286,7 +18227,7 @@
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9" ht="21" customHeight="1">
-      <c r="A25" s="73"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -18297,7 +18238,7 @@
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9" ht="21" customHeight="1">
-      <c r="A26" s="73"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -18308,7 +18249,7 @@
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" ht="21" customHeight="1">
-      <c r="A27" s="73"/>
+      <c r="A27" s="58"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -18319,7 +18260,7 @@
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" ht="21" customHeight="1">
-      <c r="A28" s="73"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -18330,7 +18271,7 @@
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" ht="21" customHeight="1">
-      <c r="A29" s="73"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -18341,7 +18282,7 @@
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:9" ht="21" customHeight="1">
-      <c r="A30" s="73"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -18352,7 +18293,7 @@
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:9" ht="21" customHeight="1">
-      <c r="A31" s="73"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -18363,7 +18304,7 @@
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" ht="21" customHeight="1">
-      <c r="A32" s="73"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -18374,7 +18315,7 @@
       <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9" ht="21" customHeight="1">
-      <c r="A33" s="73"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -18385,7 +18326,7 @@
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" ht="21" customHeight="1">
-      <c r="A34" s="73"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -18396,7 +18337,7 @@
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9" ht="21" customHeight="1">
-      <c r="A35" s="73"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -18407,7 +18348,7 @@
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="1:9" ht="21" customHeight="1">
-      <c r="A36" s="73"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -18418,7 +18359,7 @@
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="1:9" ht="21" customHeight="1">
-      <c r="A37" s="73"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -18429,7 +18370,7 @@
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="1:9" ht="21" customHeight="1">
-      <c r="A38" s="73"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -18440,7 +18381,7 @@
       <c r="I38" s="8"/>
     </row>
     <row r="39" spans="1:9" ht="21" customHeight="1">
-      <c r="A39" s="73"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -18451,7 +18392,7 @@
       <c r="I39" s="8"/>
     </row>
     <row r="40" spans="1:9" ht="21" customHeight="1">
-      <c r="A40" s="73"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -18462,7 +18403,7 @@
       <c r="I40" s="8"/>
     </row>
     <row r="41" spans="1:9" ht="21" customHeight="1">
-      <c r="A41" s="73"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -18473,7 +18414,7 @@
       <c r="I41" s="8"/>
     </row>
     <row r="42" spans="1:9" ht="21" customHeight="1">
-      <c r="A42" s="73"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -18484,7 +18425,7 @@
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:9" ht="21" customHeight="1">
-      <c r="A43" s="73"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -18495,7 +18436,7 @@
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="1:9" ht="21" customHeight="1">
-      <c r="A44" s="73"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -18506,7 +18447,7 @@
       <c r="I44" s="8"/>
     </row>
     <row r="45" spans="1:9" ht="21" customHeight="1">
-      <c r="A45" s="73"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -18517,7 +18458,7 @@
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:9" ht="21" customHeight="1">
-      <c r="A46" s="73"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -18528,7 +18469,7 @@
       <c r="I46" s="8"/>
     </row>
     <row r="47" spans="1:9" ht="21" customHeight="1">
-      <c r="A47" s="73"/>
+      <c r="A47" s="58"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -18539,7 +18480,7 @@
       <c r="I47" s="8"/>
     </row>
     <row r="48" spans="1:9" ht="21" customHeight="1">
-      <c r="A48" s="73"/>
+      <c r="A48" s="58"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -18550,7 +18491,7 @@
       <c r="I48" s="8"/>
     </row>
     <row r="49" spans="1:9" ht="21" customHeight="1">
-      <c r="A49" s="73"/>
+      <c r="A49" s="58"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -18561,7 +18502,7 @@
       <c r="I49" s="8"/>
     </row>
     <row r="50" spans="1:9" ht="21" customHeight="1">
-      <c r="A50" s="73"/>
+      <c r="A50" s="58"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -18572,7 +18513,7 @@
       <c r="I50" s="8"/>
     </row>
     <row r="51" spans="1:9" ht="21" customHeight="1">
-      <c r="A51" s="73"/>
+      <c r="A51" s="58"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -18583,7 +18524,7 @@
       <c r="I51" s="8"/>
     </row>
     <row r="52" spans="1:9" ht="21" customHeight="1">
-      <c r="A52" s="73"/>
+      <c r="A52" s="58"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -18594,7 +18535,7 @@
       <c r="I52" s="8"/>
     </row>
     <row r="53" spans="1:9" ht="21" customHeight="1">
-      <c r="A53" s="73"/>
+      <c r="A53" s="58"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -18605,7 +18546,7 @@
       <c r="I53" s="8"/>
     </row>
     <row r="54" spans="1:9" ht="21" customHeight="1">
-      <c r="A54" s="73"/>
+      <c r="A54" s="58"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -18616,7 +18557,7 @@
       <c r="I54" s="8"/>
     </row>
     <row r="55" spans="1:9" ht="21" customHeight="1">
-      <c r="A55" s="73"/>
+      <c r="A55" s="58"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -18627,7 +18568,7 @@
       <c r="I55" s="8"/>
     </row>
     <row r="56" spans="1:9" ht="21" customHeight="1">
-      <c r="A56" s="73"/>
+      <c r="A56" s="58"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -18638,7 +18579,7 @@
       <c r="I56" s="8"/>
     </row>
     <row r="57" spans="1:9" ht="21" customHeight="1">
-      <c r="A57" s="73"/>
+      <c r="A57" s="58"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -18649,7 +18590,7 @@
       <c r="I57" s="8"/>
     </row>
     <row r="58" spans="1:9" ht="21" customHeight="1">
-      <c r="A58" s="73"/>
+      <c r="A58" s="58"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -18660,7 +18601,7 @@
       <c r="I58" s="8"/>
     </row>
     <row r="59" spans="1:9" ht="21" customHeight="1">
-      <c r="A59" s="73"/>
+      <c r="A59" s="58"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -18671,7 +18612,7 @@
       <c r="I59" s="8"/>
     </row>
     <row r="60" spans="1:9" ht="21" customHeight="1">
-      <c r="A60" s="73"/>
+      <c r="A60" s="58"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -18682,7 +18623,7 @@
       <c r="I60" s="8"/>
     </row>
     <row r="61" spans="1:9" ht="21" customHeight="1">
-      <c r="A61" s="73"/>
+      <c r="A61" s="58"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -18693,7 +18634,7 @@
       <c r="I61" s="8"/>
     </row>
     <row r="62" spans="1:9" ht="21" customHeight="1">
-      <c r="A62" s="73"/>
+      <c r="A62" s="58"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -18704,7 +18645,7 @@
       <c r="I62" s="8"/>
     </row>
     <row r="63" spans="1:9" ht="21" customHeight="1">
-      <c r="A63" s="73"/>
+      <c r="A63" s="58"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -18715,7 +18656,7 @@
       <c r="I63" s="8"/>
     </row>
     <row r="64" spans="1:9" ht="21" customHeight="1">
-      <c r="A64" s="73"/>
+      <c r="A64" s="58"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -18726,7 +18667,7 @@
       <c r="I64" s="8"/>
     </row>
     <row r="65" spans="1:9" ht="21" customHeight="1">
-      <c r="A65" s="73"/>
+      <c r="A65" s="58"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -18737,7 +18678,7 @@
       <c r="I65" s="8"/>
     </row>
     <row r="66" spans="1:9" ht="21" customHeight="1">
-      <c r="A66" s="73"/>
+      <c r="A66" s="58"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -18748,7 +18689,7 @@
       <c r="I66" s="8"/>
     </row>
     <row r="67" spans="1:9" ht="21" customHeight="1">
-      <c r="A67" s="73"/>
+      <c r="A67" s="58"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -18759,7 +18700,7 @@
       <c r="I67" s="8"/>
     </row>
     <row r="68" spans="1:9" ht="21" customHeight="1">
-      <c r="A68" s="73"/>
+      <c r="A68" s="58"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -18770,7 +18711,7 @@
       <c r="I68" s="8"/>
     </row>
     <row r="69" spans="1:9" ht="21" customHeight="1">
-      <c r="A69" s="73"/>
+      <c r="A69" s="58"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -18781,7 +18722,7 @@
       <c r="I69" s="8"/>
     </row>
     <row r="70" spans="1:9" ht="21" customHeight="1">
-      <c r="A70" s="73"/>
+      <c r="A70" s="58"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -18792,7 +18733,7 @@
       <c r="I70" s="8"/>
     </row>
     <row r="71" spans="1:9" ht="21" customHeight="1">
-      <c r="A71" s="73"/>
+      <c r="A71" s="58"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -18803,7 +18744,7 @@
       <c r="I71" s="8"/>
     </row>
     <row r="72" spans="1:9" ht="21" customHeight="1">
-      <c r="A72" s="73"/>
+      <c r="A72" s="58"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -18814,7 +18755,7 @@
       <c r="I72" s="8"/>
     </row>
     <row r="73" spans="1:9" ht="21" customHeight="1">
-      <c r="A73" s="73"/>
+      <c r="A73" s="58"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -18825,7 +18766,7 @@
       <c r="I73" s="8"/>
     </row>
     <row r="74" spans="1:9" ht="21" customHeight="1">
-      <c r="A74" s="73"/>
+      <c r="A74" s="58"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -18836,7 +18777,7 @@
       <c r="I74" s="8"/>
     </row>
     <row r="75" spans="1:9" ht="21" customHeight="1">
-      <c r="A75" s="73"/>
+      <c r="A75" s="58"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -18847,7 +18788,7 @@
       <c r="I75" s="8"/>
     </row>
     <row r="76" spans="1:9" ht="21" customHeight="1">
-      <c r="A76" s="73"/>
+      <c r="A76" s="58"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -18858,7 +18799,7 @@
       <c r="I76" s="8"/>
     </row>
     <row r="77" spans="1:9" ht="21" customHeight="1">
-      <c r="A77" s="73"/>
+      <c r="A77" s="58"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -18869,7 +18810,7 @@
       <c r="I77" s="8"/>
     </row>
     <row r="78" spans="1:9" ht="21" customHeight="1">
-      <c r="A78" s="73"/>
+      <c r="A78" s="58"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -18880,7 +18821,7 @@
       <c r="I78" s="8"/>
     </row>
     <row r="79" spans="1:9" ht="21" customHeight="1">
-      <c r="A79" s="73"/>
+      <c r="A79" s="58"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -18891,7 +18832,7 @@
       <c r="I79" s="8"/>
     </row>
     <row r="80" spans="1:9" ht="21" customHeight="1">
-      <c r="A80" s="73"/>
+      <c r="A80" s="58"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -18902,7 +18843,7 @@
       <c r="I80" s="8"/>
     </row>
     <row r="81" spans="1:9" ht="21" customHeight="1">
-      <c r="A81" s="73"/>
+      <c r="A81" s="58"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -18913,7 +18854,7 @@
       <c r="I81" s="8"/>
     </row>
     <row r="82" spans="1:9" ht="21" customHeight="1">
-      <c r="A82" s="73"/>
+      <c r="A82" s="58"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -18924,7 +18865,7 @@
       <c r="I82" s="8"/>
     </row>
     <row r="83" spans="1:9" ht="21" customHeight="1">
-      <c r="A83" s="73"/>
+      <c r="A83" s="58"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -18935,7 +18876,7 @@
       <c r="I83" s="8"/>
     </row>
     <row r="84" spans="1:9" ht="21" customHeight="1">
-      <c r="A84" s="73"/>
+      <c r="A84" s="58"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -18946,7 +18887,7 @@
       <c r="I84" s="8"/>
     </row>
     <row r="85" spans="1:9" ht="21" customHeight="1">
-      <c r="A85" s="73"/>
+      <c r="A85" s="58"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -18957,7 +18898,7 @@
       <c r="I85" s="8"/>
     </row>
     <row r="86" spans="1:9" ht="21" customHeight="1">
-      <c r="A86" s="73"/>
+      <c r="A86" s="58"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -18968,7 +18909,7 @@
       <c r="I86" s="8"/>
     </row>
     <row r="87" spans="1:9" ht="21" customHeight="1">
-      <c r="A87" s="73"/>
+      <c r="A87" s="58"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -18979,7 +18920,7 @@
       <c r="I87" s="8"/>
     </row>
     <row r="88" spans="1:9" ht="21" customHeight="1">
-      <c r="A88" s="73"/>
+      <c r="A88" s="58"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -18990,7 +18931,7 @@
       <c r="I88" s="8"/>
     </row>
     <row r="89" spans="1:9" ht="21" customHeight="1">
-      <c r="A89" s="73"/>
+      <c r="A89" s="58"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -19001,7 +18942,7 @@
       <c r="I89" s="8"/>
     </row>
     <row r="90" spans="1:9" ht="21" customHeight="1">
-      <c r="A90" s="73"/>
+      <c r="A90" s="58"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -19012,7 +18953,7 @@
       <c r="I90" s="8"/>
     </row>
     <row r="91" spans="1:9" ht="21" customHeight="1">
-      <c r="A91" s="73"/>
+      <c r="A91" s="58"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -19023,7 +18964,7 @@
       <c r="I91" s="8"/>
     </row>
     <row r="92" spans="1:9" ht="21" customHeight="1">
-      <c r="A92" s="73"/>
+      <c r="A92" s="58"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -19034,7 +18975,7 @@
       <c r="I92" s="8"/>
     </row>
     <row r="93" spans="1:9" ht="21" customHeight="1">
-      <c r="A93" s="73"/>
+      <c r="A93" s="58"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -19045,7 +18986,7 @@
       <c r="I93" s="8"/>
     </row>
     <row r="94" spans="1:9" ht="21" customHeight="1">
-      <c r="A94" s="73"/>
+      <c r="A94" s="58"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -19056,7 +18997,7 @@
       <c r="I94" s="8"/>
     </row>
     <row r="95" spans="1:9" ht="21" customHeight="1">
-      <c r="A95" s="73"/>
+      <c r="A95" s="58"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -19067,7 +19008,7 @@
       <c r="I95" s="8"/>
     </row>
     <row r="96" spans="1:9" ht="21" customHeight="1">
-      <c r="A96" s="73"/>
+      <c r="A96" s="58"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -19078,7 +19019,7 @@
       <c r="I96" s="8"/>
     </row>
     <row r="97" spans="1:9" ht="21" customHeight="1">
-      <c r="A97" s="73"/>
+      <c r="A97" s="58"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -19089,7 +19030,7 @@
       <c r="I97" s="8"/>
     </row>
     <row r="98" spans="1:9" ht="21" customHeight="1">
-      <c r="A98" s="73"/>
+      <c r="A98" s="58"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -19100,7 +19041,7 @@
       <c r="I98" s="8"/>
     </row>
     <row r="99" spans="1:9" ht="21" customHeight="1">
-      <c r="A99" s="73"/>
+      <c r="A99" s="58"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -19111,7 +19052,7 @@
       <c r="I99" s="8"/>
     </row>
     <row r="100" spans="1:9" ht="21" customHeight="1">
-      <c r="A100" s="73"/>
+      <c r="A100" s="58"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -19122,7 +19063,7 @@
       <c r="I100" s="8"/>
     </row>
     <row r="101" spans="1:9" ht="21" customHeight="1">
-      <c r="A101" s="73"/>
+      <c r="A101" s="58"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -19133,7 +19074,7 @@
       <c r="I101" s="8"/>
     </row>
     <row r="102" spans="1:9" ht="21" customHeight="1">
-      <c r="A102" s="73"/>
+      <c r="A102" s="58"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -19144,7 +19085,7 @@
       <c r="I102" s="8"/>
     </row>
     <row r="103" spans="1:9" ht="21" customHeight="1">
-      <c r="A103" s="73"/>
+      <c r="A103" s="58"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -19155,7 +19096,7 @@
       <c r="I103" s="8"/>
     </row>
     <row r="104" spans="1:9" ht="21" customHeight="1">
-      <c r="A104" s="73"/>
+      <c r="A104" s="58"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -19166,7 +19107,7 @@
       <c r="I104" s="8"/>
     </row>
     <row r="105" spans="1:9" ht="21" customHeight="1">
-      <c r="A105" s="73"/>
+      <c r="A105" s="58"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -19177,7 +19118,7 @@
       <c r="I105" s="8"/>
     </row>
     <row r="106" spans="1:9" ht="21" customHeight="1">
-      <c r="A106" s="73"/>
+      <c r="A106" s="58"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -19188,7 +19129,7 @@
       <c r="I106" s="8"/>
     </row>
     <row r="107" spans="1:9" ht="21" customHeight="1">
-      <c r="A107" s="73"/>
+      <c r="A107" s="58"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -19199,7 +19140,7 @@
       <c r="I107" s="8"/>
     </row>
     <row r="108" spans="1:9" ht="21" customHeight="1">
-      <c r="A108" s="73"/>
+      <c r="A108" s="58"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
@@ -19210,7 +19151,7 @@
       <c r="I108" s="8"/>
     </row>
     <row r="109" spans="1:9" ht="21" customHeight="1">
-      <c r="A109" s="73"/>
+      <c r="A109" s="58"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -19221,7 +19162,7 @@
       <c r="I109" s="8"/>
     </row>
     <row r="110" spans="1:9" ht="21" customHeight="1">
-      <c r="A110" s="73"/>
+      <c r="A110" s="58"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -19232,7 +19173,7 @@
       <c r="I110" s="8"/>
     </row>
     <row r="111" spans="1:9" ht="21" customHeight="1">
-      <c r="A111" s="73"/>
+      <c r="A111" s="58"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -19243,7 +19184,7 @@
       <c r="I111" s="8"/>
     </row>
     <row r="112" spans="1:9" ht="21" customHeight="1">
-      <c r="A112" s="73"/>
+      <c r="A112" s="58"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -19254,7 +19195,7 @@
       <c r="I112" s="8"/>
     </row>
     <row r="113" spans="1:9" ht="21" customHeight="1">
-      <c r="A113" s="73"/>
+      <c r="A113" s="58"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -19265,7 +19206,7 @@
       <c r="I113" s="8"/>
     </row>
     <row r="114" spans="1:9" ht="21" customHeight="1">
-      <c r="A114" s="73"/>
+      <c r="A114" s="58"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -19276,7 +19217,7 @@
       <c r="I114" s="8"/>
     </row>
     <row r="115" spans="1:9" ht="21" customHeight="1">
-      <c r="A115" s="73"/>
+      <c r="A115" s="58"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -19287,7 +19228,7 @@
       <c r="I115" s="8"/>
     </row>
     <row r="116" spans="1:9" ht="21" customHeight="1">
-      <c r="A116" s="73"/>
+      <c r="A116" s="58"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -19298,7 +19239,7 @@
       <c r="I116" s="8"/>
     </row>
     <row r="117" spans="1:9" ht="21" customHeight="1">
-      <c r="A117" s="73"/>
+      <c r="A117" s="58"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -19309,7 +19250,7 @@
       <c r="I117" s="8"/>
     </row>
     <row r="118" spans="1:9" ht="21" customHeight="1">
-      <c r="A118" s="73"/>
+      <c r="A118" s="58"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -19320,7 +19261,7 @@
       <c r="I118" s="8"/>
     </row>
     <row r="119" spans="1:9" ht="21" customHeight="1">
-      <c r="A119" s="73"/>
+      <c r="A119" s="58"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -19331,7 +19272,7 @@
       <c r="I119" s="8"/>
     </row>
     <row r="120" spans="1:9" ht="21" customHeight="1">
-      <c r="A120" s="73"/>
+      <c r="A120" s="58"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
@@ -19342,7 +19283,7 @@
       <c r="I120" s="8"/>
     </row>
     <row r="121" spans="1:9" ht="21" customHeight="1">
-      <c r="A121" s="73"/>
+      <c r="A121" s="58"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -19353,7 +19294,7 @@
       <c r="I121" s="8"/>
     </row>
     <row r="122" spans="1:9" ht="21" customHeight="1">
-      <c r="A122" s="73"/>
+      <c r="A122" s="58"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
@@ -19364,7 +19305,7 @@
       <c r="I122" s="8"/>
     </row>
     <row r="123" spans="1:9" ht="21" customHeight="1">
-      <c r="A123" s="73"/>
+      <c r="A123" s="58"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -19375,7 +19316,7 @@
       <c r="I123" s="8"/>
     </row>
     <row r="124" spans="1:9" ht="21" customHeight="1">
-      <c r="A124" s="73"/>
+      <c r="A124" s="58"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -19386,7 +19327,7 @@
       <c r="I124" s="8"/>
     </row>
     <row r="125" spans="1:9" ht="21" customHeight="1">
-      <c r="A125" s="73"/>
+      <c r="A125" s="58"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -19397,7 +19338,7 @@
       <c r="I125" s="8"/>
     </row>
     <row r="126" spans="1:9" ht="21" customHeight="1">
-      <c r="A126" s="73"/>
+      <c r="A126" s="58"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -19408,7 +19349,7 @@
       <c r="I126" s="8"/>
     </row>
     <row r="127" spans="1:9" ht="21" customHeight="1">
-      <c r="A127" s="73"/>
+      <c r="A127" s="58"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
@@ -19419,7 +19360,7 @@
       <c r="I127" s="8"/>
     </row>
     <row r="128" spans="1:9" ht="21" customHeight="1">
-      <c r="A128" s="73"/>
+      <c r="A128" s="58"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
@@ -19430,7 +19371,7 @@
       <c r="I128" s="8"/>
     </row>
     <row r="129" spans="1:9" ht="21" customHeight="1">
-      <c r="A129" s="73"/>
+      <c r="A129" s="58"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -19441,7 +19382,7 @@
       <c r="I129" s="8"/>
     </row>
     <row r="130" spans="1:9" ht="21" customHeight="1">
-      <c r="A130" s="73"/>
+      <c r="A130" s="58"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -19452,7 +19393,7 @@
       <c r="I130" s="8"/>
     </row>
     <row r="131" spans="1:9" ht="21" customHeight="1">
-      <c r="A131" s="73"/>
+      <c r="A131" s="58"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -19463,7 +19404,7 @@
       <c r="I131" s="8"/>
     </row>
     <row r="132" spans="1:9" ht="21" customHeight="1">
-      <c r="A132" s="73"/>
+      <c r="A132" s="58"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -19474,7 +19415,7 @@
       <c r="I132" s="8"/>
     </row>
     <row r="133" spans="1:9" ht="21" customHeight="1">
-      <c r="A133" s="73"/>
+      <c r="A133" s="58"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -19485,7 +19426,7 @@
       <c r="I133" s="8"/>
     </row>
     <row r="134" spans="1:9" ht="21" customHeight="1">
-      <c r="A134" s="73"/>
+      <c r="A134" s="58"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -19496,7 +19437,7 @@
       <c r="I134" s="8"/>
     </row>
     <row r="135" spans="1:9" ht="21" customHeight="1">
-      <c r="A135" s="73"/>
+      <c r="A135" s="58"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -19507,7 +19448,7 @@
       <c r="I135" s="8"/>
     </row>
     <row r="136" spans="1:9" ht="21" customHeight="1">
-      <c r="A136" s="73"/>
+      <c r="A136" s="58"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -19518,7 +19459,7 @@
       <c r="I136" s="8"/>
     </row>
     <row r="137" spans="1:9" ht="21" customHeight="1">
-      <c r="A137" s="73"/>
+      <c r="A137" s="58"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
@@ -19529,7 +19470,7 @@
       <c r="I137" s="8"/>
     </row>
     <row r="138" spans="1:9" ht="21" customHeight="1">
-      <c r="A138" s="73"/>
+      <c r="A138" s="58"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
@@ -19540,7 +19481,7 @@
       <c r="I138" s="8"/>
     </row>
     <row r="139" spans="1:9" ht="21" customHeight="1">
-      <c r="A139" s="73"/>
+      <c r="A139" s="58"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -19551,7 +19492,7 @@
       <c r="I139" s="8"/>
     </row>
     <row r="140" spans="1:9" ht="21" customHeight="1">
-      <c r="A140" s="73"/>
+      <c r="A140" s="58"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
@@ -19562,7 +19503,7 @@
       <c r="I140" s="8"/>
     </row>
     <row r="141" spans="1:9" ht="21" customHeight="1">
-      <c r="A141" s="73"/>
+      <c r="A141" s="58"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
@@ -19573,7 +19514,7 @@
       <c r="I141" s="8"/>
     </row>
     <row r="142" spans="1:9" ht="21" customHeight="1">
-      <c r="A142" s="73"/>
+      <c r="A142" s="58"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -19584,7 +19525,7 @@
       <c r="I142" s="8"/>
     </row>
     <row r="143" spans="1:9" ht="21" customHeight="1">
-      <c r="A143" s="73"/>
+      <c r="A143" s="58"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -19595,7 +19536,7 @@
       <c r="I143" s="8"/>
     </row>
     <row r="144" spans="1:9" ht="21" customHeight="1">
-      <c r="A144" s="73"/>
+      <c r="A144" s="58"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -19606,7 +19547,7 @@
       <c r="I144" s="8"/>
     </row>
     <row r="145" spans="1:9" ht="21" customHeight="1">
-      <c r="A145" s="73"/>
+      <c r="A145" s="58"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
@@ -19617,7 +19558,7 @@
       <c r="I145" s="8"/>
     </row>
     <row r="146" spans="1:9" ht="21" customHeight="1">
-      <c r="A146" s="73"/>
+      <c r="A146" s="58"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
@@ -19628,7 +19569,7 @@
       <c r="I146" s="8"/>
     </row>
     <row r="147" spans="1:9" ht="21" customHeight="1">
-      <c r="A147" s="73"/>
+      <c r="A147" s="58"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
@@ -19639,7 +19580,7 @@
       <c r="I147" s="8"/>
     </row>
     <row r="148" spans="1:9" ht="21" customHeight="1">
-      <c r="A148" s="73"/>
+      <c r="A148" s="58"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
@@ -19650,7 +19591,7 @@
       <c r="I148" s="8"/>
     </row>
     <row r="149" spans="1:9" ht="21" customHeight="1">
-      <c r="A149" s="73"/>
+      <c r="A149" s="58"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
@@ -19661,7 +19602,7 @@
       <c r="I149" s="8"/>
     </row>
     <row r="150" spans="1:9" ht="21" customHeight="1">
-      <c r="A150" s="73"/>
+      <c r="A150" s="58"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
@@ -19672,7 +19613,7 @@
       <c r="I150" s="8"/>
     </row>
     <row r="151" spans="1:9" ht="21" customHeight="1">
-      <c r="A151" s="73"/>
+      <c r="A151" s="58"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
@@ -19683,7 +19624,7 @@
       <c r="I151" s="8"/>
     </row>
     <row r="152" spans="1:9" ht="21" customHeight="1">
-      <c r="A152" s="73"/>
+      <c r="A152" s="58"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
@@ -19694,7 +19635,7 @@
       <c r="I152" s="8"/>
     </row>
     <row r="153" spans="1:9" ht="21" customHeight="1">
-      <c r="A153" s="73"/>
+      <c r="A153" s="58"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -19705,7 +19646,7 @@
       <c r="I153" s="8"/>
     </row>
     <row r="154" spans="1:9" ht="21" customHeight="1">
-      <c r="A154" s="73"/>
+      <c r="A154" s="58"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
@@ -19716,7 +19657,7 @@
       <c r="I154" s="8"/>
     </row>
     <row r="155" spans="1:9" ht="21" customHeight="1">
-      <c r="A155" s="73"/>
+      <c r="A155" s="58"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
@@ -19727,7 +19668,7 @@
       <c r="I155" s="8"/>
     </row>
     <row r="156" spans="1:9" ht="21" customHeight="1">
-      <c r="A156" s="73"/>
+      <c r="A156" s="58"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
@@ -19738,7 +19679,7 @@
       <c r="I156" s="8"/>
     </row>
     <row r="157" spans="1:9" ht="21" customHeight="1">
-      <c r="A157" s="73"/>
+      <c r="A157" s="58"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
@@ -19749,7 +19690,7 @@
       <c r="I157" s="8"/>
     </row>
     <row r="158" spans="1:9" ht="21" customHeight="1">
-      <c r="A158" s="73"/>
+      <c r="A158" s="58"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
@@ -19760,7 +19701,7 @@
       <c r="I158" s="8"/>
     </row>
     <row r="159" spans="1:9" ht="21" customHeight="1">
-      <c r="A159" s="73"/>
+      <c r="A159" s="58"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
@@ -19771,7 +19712,7 @@
       <c r="I159" s="8"/>
     </row>
     <row r="160" spans="1:9" ht="21" customHeight="1">
-      <c r="A160" s="73"/>
+      <c r="A160" s="58"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
@@ -19782,7 +19723,7 @@
       <c r="I160" s="8"/>
     </row>
     <row r="161" spans="1:9" ht="21" customHeight="1">
-      <c r="A161" s="73"/>
+      <c r="A161" s="58"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
@@ -19793,7 +19734,7 @@
       <c r="I161" s="8"/>
     </row>
     <row r="162" spans="1:9" ht="21" customHeight="1">
-      <c r="A162" s="73"/>
+      <c r="A162" s="58"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
@@ -19804,7 +19745,7 @@
       <c r="I162" s="8"/>
     </row>
     <row r="163" spans="1:9" ht="21" customHeight="1">
-      <c r="A163" s="73"/>
+      <c r="A163" s="58"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
@@ -19815,7 +19756,7 @@
       <c r="I163" s="8"/>
     </row>
     <row r="164" spans="1:9" ht="21" customHeight="1">
-      <c r="A164" s="73"/>
+      <c r="A164" s="58"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
@@ -19826,7 +19767,7 @@
       <c r="I164" s="8"/>
     </row>
     <row r="165" spans="1:9" ht="21" customHeight="1">
-      <c r="A165" s="73"/>
+      <c r="A165" s="58"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
@@ -19837,7 +19778,7 @@
       <c r="I165" s="8"/>
     </row>
     <row r="166" spans="1:9" ht="21" customHeight="1">
-      <c r="A166" s="73"/>
+      <c r="A166" s="58"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
@@ -19848,7 +19789,7 @@
       <c r="I166" s="8"/>
     </row>
     <row r="167" spans="1:9" ht="21" customHeight="1">
-      <c r="A167" s="73"/>
+      <c r="A167" s="58"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
@@ -19859,7 +19800,7 @@
       <c r="I167" s="8"/>
     </row>
     <row r="168" spans="1:9" ht="21" customHeight="1">
-      <c r="A168" s="73"/>
+      <c r="A168" s="58"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
@@ -19870,7 +19811,7 @@
       <c r="I168" s="8"/>
     </row>
     <row r="169" spans="1:9" ht="21" customHeight="1">
-      <c r="A169" s="73"/>
+      <c r="A169" s="58"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
@@ -19881,7 +19822,7 @@
       <c r="I169" s="8"/>
     </row>
     <row r="170" spans="1:9" ht="21" customHeight="1">
-      <c r="A170" s="73"/>
+      <c r="A170" s="58"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
@@ -19892,7 +19833,7 @@
       <c r="I170" s="8"/>
     </row>
     <row r="171" spans="1:9" ht="21" customHeight="1">
-      <c r="A171" s="73"/>
+      <c r="A171" s="58"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
@@ -19903,7 +19844,7 @@
       <c r="I171" s="8"/>
     </row>
     <row r="172" spans="1:9" ht="21" customHeight="1">
-      <c r="A172" s="73"/>
+      <c r="A172" s="58"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
@@ -19914,7 +19855,7 @@
       <c r="I172" s="8"/>
     </row>
     <row r="173" spans="1:9" ht="21" customHeight="1">
-      <c r="A173" s="73"/>
+      <c r="A173" s="58"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
@@ -19925,7 +19866,7 @@
       <c r="I173" s="8"/>
     </row>
     <row r="174" spans="1:9" ht="21" customHeight="1">
-      <c r="A174" s="73"/>
+      <c r="A174" s="58"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
@@ -19936,7 +19877,7 @@
       <c r="I174" s="8"/>
     </row>
     <row r="175" spans="1:9" ht="21" customHeight="1">
-      <c r="A175" s="73"/>
+      <c r="A175" s="58"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
@@ -19947,7 +19888,7 @@
       <c r="I175" s="8"/>
     </row>
     <row r="176" spans="1:9" ht="21" customHeight="1">
-      <c r="A176" s="73"/>
+      <c r="A176" s="58"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
@@ -19958,7 +19899,7 @@
       <c r="I176" s="8"/>
     </row>
     <row r="177" spans="1:9" ht="21" customHeight="1">
-      <c r="A177" s="73"/>
+      <c r="A177" s="58"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
@@ -19969,7 +19910,7 @@
       <c r="I177" s="8"/>
     </row>
     <row r="178" spans="1:9" ht="21" customHeight="1">
-      <c r="A178" s="73"/>
+      <c r="A178" s="58"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
       <c r="D178" s="6"/>
@@ -19980,7 +19921,7 @@
       <c r="I178" s="8"/>
     </row>
     <row r="179" spans="1:9" ht="21" customHeight="1">
-      <c r="A179" s="73"/>
+      <c r="A179" s="58"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
@@ -19991,7 +19932,7 @@
       <c r="I179" s="8"/>
     </row>
     <row r="180" spans="1:9" ht="21" customHeight="1">
-      <c r="A180" s="73"/>
+      <c r="A180" s="58"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
       <c r="D180" s="6"/>
@@ -20002,7 +19943,7 @@
       <c r="I180" s="8"/>
     </row>
     <row r="181" spans="1:9" ht="21" customHeight="1">
-      <c r="A181" s="73"/>
+      <c r="A181" s="58"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
       <c r="D181" s="6"/>
@@ -20013,7 +19954,7 @@
       <c r="I181" s="8"/>
     </row>
     <row r="182" spans="1:9" ht="21" customHeight="1">
-      <c r="A182" s="73"/>
+      <c r="A182" s="58"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
       <c r="D182" s="6"/>
@@ -20024,7 +19965,7 @@
       <c r="I182" s="8"/>
     </row>
     <row r="183" spans="1:9" ht="21" customHeight="1">
-      <c r="A183" s="73"/>
+      <c r="A183" s="58"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
@@ -20035,7 +19976,7 @@
       <c r="I183" s="8"/>
     </row>
     <row r="184" spans="1:9" ht="21" customHeight="1">
-      <c r="A184" s="73"/>
+      <c r="A184" s="58"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
       <c r="D184" s="6"/>
@@ -20046,7 +19987,7 @@
       <c r="I184" s="8"/>
     </row>
     <row r="185" spans="1:9" ht="21" customHeight="1">
-      <c r="A185" s="73"/>
+      <c r="A185" s="58"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
       <c r="D185" s="6"/>
@@ -20057,7 +19998,7 @@
       <c r="I185" s="8"/>
     </row>
     <row r="186" spans="1:9" ht="21" customHeight="1">
-      <c r="A186" s="73"/>
+      <c r="A186" s="58"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
       <c r="D186" s="6"/>
@@ -20068,7 +20009,7 @@
       <c r="I186" s="8"/>
     </row>
     <row r="187" spans="1:9" ht="21" customHeight="1">
-      <c r="A187" s="73"/>
+      <c r="A187" s="58"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
       <c r="D187" s="6"/>
@@ -20079,7 +20020,7 @@
       <c r="I187" s="8"/>
     </row>
     <row r="188" spans="1:9" ht="21" customHeight="1">
-      <c r="A188" s="73"/>
+      <c r="A188" s="58"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
       <c r="D188" s="6"/>
@@ -20090,7 +20031,7 @@
       <c r="I188" s="8"/>
     </row>
     <row r="189" spans="1:9" ht="21" customHeight="1">
-      <c r="A189" s="73"/>
+      <c r="A189" s="58"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
@@ -20101,7 +20042,7 @@
       <c r="I189" s="8"/>
     </row>
     <row r="190" spans="1:9" ht="21" customHeight="1">
-      <c r="A190" s="73"/>
+      <c r="A190" s="58"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
       <c r="D190" s="6"/>
@@ -20112,7 +20053,7 @@
       <c r="I190" s="8"/>
     </row>
     <row r="191" spans="1:9" ht="21" customHeight="1">
-      <c r="A191" s="73"/>
+      <c r="A191" s="58"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
       <c r="D191" s="6"/>
@@ -20123,7 +20064,7 @@
       <c r="I191" s="8"/>
     </row>
     <row r="192" spans="1:9" ht="21" customHeight="1">
-      <c r="A192" s="73"/>
+      <c r="A192" s="58"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
       <c r="D192" s="6"/>
@@ -20134,7 +20075,7 @@
       <c r="I192" s="8"/>
     </row>
     <row r="193" spans="1:9" ht="21" customHeight="1">
-      <c r="A193" s="73"/>
+      <c r="A193" s="58"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
       <c r="D193" s="6"/>
@@ -20145,7 +20086,7 @@
       <c r="I193" s="8"/>
     </row>
     <row r="194" spans="1:9" ht="21" customHeight="1">
-      <c r="A194" s="73"/>
+      <c r="A194" s="58"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
@@ -20156,7 +20097,7 @@
       <c r="I194" s="8"/>
     </row>
     <row r="195" spans="1:9" ht="21" customHeight="1">
-      <c r="A195" s="73"/>
+      <c r="A195" s="58"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
@@ -20167,7 +20108,7 @@
       <c r="I195" s="8"/>
     </row>
     <row r="196" spans="1:9" ht="21" customHeight="1">
-      <c r="A196" s="73"/>
+      <c r="A196" s="58"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
@@ -20178,7 +20119,7 @@
       <c r="I196" s="8"/>
     </row>
     <row r="197" spans="1:9" ht="21" customHeight="1">
-      <c r="A197" s="73"/>
+      <c r="A197" s="58"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
@@ -20189,7 +20130,7 @@
       <c r="I197" s="8"/>
     </row>
     <row r="198" spans="1:9" ht="21" customHeight="1">
-      <c r="A198" s="73"/>
+      <c r="A198" s="58"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
@@ -20200,7 +20141,7 @@
       <c r="I198" s="8"/>
     </row>
     <row r="199" spans="1:9" ht="21" customHeight="1">
-      <c r="A199" s="73"/>
+      <c r="A199" s="58"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
@@ -20211,7 +20152,7 @@
       <c r="I199" s="8"/>
     </row>
     <row r="200" spans="1:9" ht="21" customHeight="1">
-      <c r="A200" s="73"/>
+      <c r="A200" s="58"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
@@ -20222,7 +20163,7 @@
       <c r="I200" s="8"/>
     </row>
     <row r="201" spans="1:9" ht="21" customHeight="1">
-      <c r="A201" s="73"/>
+      <c r="A201" s="58"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
       <c r="D201" s="6"/>
@@ -20233,7 +20174,7 @@
       <c r="I201" s="8"/>
     </row>
     <row r="202" spans="1:9" ht="21" customHeight="1">
-      <c r="A202" s="73"/>
+      <c r="A202" s="58"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
@@ -20244,7 +20185,7 @@
       <c r="I202" s="8"/>
     </row>
     <row r="203" spans="1:9" ht="21" customHeight="1">
-      <c r="A203" s="73"/>
+      <c r="A203" s="58"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
       <c r="D203" s="6"/>
@@ -20255,7 +20196,7 @@
       <c r="I203" s="8"/>
     </row>
     <row r="204" spans="1:9" ht="21" customHeight="1">
-      <c r="A204" s="73"/>
+      <c r="A204" s="58"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
       <c r="D204" s="6"/>
@@ -20266,7 +20207,7 @@
       <c r="I204" s="8"/>
     </row>
     <row r="205" spans="1:9" ht="21" customHeight="1">
-      <c r="A205" s="73"/>
+      <c r="A205" s="58"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
       <c r="D205" s="6"/>
@@ -20277,7 +20218,7 @@
       <c r="I205" s="8"/>
     </row>
     <row r="206" spans="1:9" ht="21" customHeight="1">
-      <c r="A206" s="73"/>
+      <c r="A206" s="58"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
       <c r="D206" s="6"/>
@@ -20288,7 +20229,7 @@
       <c r="I206" s="8"/>
     </row>
     <row r="207" spans="1:9" ht="21" customHeight="1">
-      <c r="A207" s="73"/>
+      <c r="A207" s="58"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
       <c r="D207" s="6"/>
@@ -20299,7 +20240,7 @@
       <c r="I207" s="8"/>
     </row>
     <row r="208" spans="1:9" ht="21" customHeight="1">
-      <c r="A208" s="73"/>
+      <c r="A208" s="58"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
@@ -20310,7 +20251,7 @@
       <c r="I208" s="8"/>
     </row>
     <row r="209" spans="1:9" ht="21" customHeight="1">
-      <c r="A209" s="73"/>
+      <c r="A209" s="58"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
       <c r="D209" s="6"/>
@@ -20321,7 +20262,7 @@
       <c r="I209" s="8"/>
     </row>
     <row r="210" spans="1:9" ht="21" customHeight="1">
-      <c r="A210" s="73"/>
+      <c r="A210" s="58"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
       <c r="D210" s="6"/>
@@ -20332,7 +20273,7 @@
       <c r="I210" s="8"/>
     </row>
     <row r="211" spans="1:9" ht="21" customHeight="1">
-      <c r="A211" s="73"/>
+      <c r="A211" s="58"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
       <c r="D211" s="6"/>
@@ -20343,7 +20284,7 @@
       <c r="I211" s="8"/>
     </row>
     <row r="212" spans="1:9" ht="21" customHeight="1">
-      <c r="A212" s="73"/>
+      <c r="A212" s="58"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
       <c r="D212" s="6"/>
@@ -20354,7 +20295,7 @@
       <c r="I212" s="8"/>
     </row>
     <row r="213" spans="1:9" ht="21" customHeight="1">
-      <c r="A213" s="73"/>
+      <c r="A213" s="58"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
       <c r="D213" s="6"/>
@@ -20365,7 +20306,7 @@
       <c r="I213" s="8"/>
     </row>
     <row r="214" spans="1:9" ht="21" customHeight="1">
-      <c r="A214" s="73"/>
+      <c r="A214" s="58"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
       <c r="D214" s="6"/>
@@ -20376,7 +20317,7 @@
       <c r="I214" s="8"/>
     </row>
     <row r="215" spans="1:9" ht="21" customHeight="1">
-      <c r="A215" s="73"/>
+      <c r="A215" s="58"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
       <c r="D215" s="6"/>
@@ -20387,7 +20328,7 @@
       <c r="I215" s="8"/>
     </row>
     <row r="216" spans="1:9" ht="21" customHeight="1">
-      <c r="A216" s="73"/>
+      <c r="A216" s="58"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
       <c r="D216" s="6"/>
@@ -20398,7 +20339,7 @@
       <c r="I216" s="8"/>
     </row>
     <row r="217" spans="1:9" ht="21" customHeight="1">
-      <c r="A217" s="73"/>
+      <c r="A217" s="58"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
       <c r="D217" s="6"/>
@@ -20409,7 +20350,7 @@
       <c r="I217" s="8"/>
     </row>
     <row r="218" spans="1:9" ht="21" customHeight="1">
-      <c r="A218" s="73"/>
+      <c r="A218" s="58"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
       <c r="D218" s="6"/>
@@ -20420,7 +20361,7 @@
       <c r="I218" s="8"/>
     </row>
     <row r="219" spans="1:9" ht="21" customHeight="1">
-      <c r="A219" s="73"/>
+      <c r="A219" s="58"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
       <c r="D219" s="6"/>
@@ -20431,7 +20372,7 @@
       <c r="I219" s="8"/>
     </row>
     <row r="220" spans="1:9" ht="21" customHeight="1">
-      <c r="A220" s="73"/>
+      <c r="A220" s="58"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
       <c r="D220" s="6"/>
@@ -20442,7 +20383,7 @@
       <c r="I220" s="8"/>
     </row>
     <row r="221" spans="1:9" ht="21" customHeight="1">
-      <c r="A221" s="73"/>
+      <c r="A221" s="58"/>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
       <c r="D221" s="6"/>
@@ -20453,7 +20394,7 @@
       <c r="I221" s="8"/>
     </row>
     <row r="222" spans="1:9" ht="21" customHeight="1">
-      <c r="A222" s="73"/>
+      <c r="A222" s="58"/>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
       <c r="D222" s="6"/>
@@ -20464,7 +20405,7 @@
       <c r="I222" s="8"/>
     </row>
     <row r="223" spans="1:9" ht="21" customHeight="1">
-      <c r="A223" s="73"/>
+      <c r="A223" s="58"/>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
       <c r="D223" s="6"/>
@@ -20475,7 +20416,7 @@
       <c r="I223" s="8"/>
     </row>
     <row r="224" spans="1:9" ht="21" customHeight="1">
-      <c r="A224" s="73"/>
+      <c r="A224" s="58"/>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
       <c r="D224" s="6"/>
@@ -20486,7 +20427,7 @@
       <c r="I224" s="8"/>
     </row>
     <row r="225" spans="1:9" ht="21" customHeight="1">
-      <c r="A225" s="73"/>
+      <c r="A225" s="58"/>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
       <c r="D225" s="6"/>
@@ -20497,7 +20438,7 @@
       <c r="I225" s="8"/>
     </row>
     <row r="226" spans="1:9" ht="21" customHeight="1">
-      <c r="A226" s="73"/>
+      <c r="A226" s="58"/>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
       <c r="D226" s="6"/>
@@ -20508,7 +20449,7 @@
       <c r="I226" s="8"/>
     </row>
     <row r="227" spans="1:9" ht="21" customHeight="1">
-      <c r="A227" s="73"/>
+      <c r="A227" s="58"/>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
@@ -20519,7 +20460,7 @@
       <c r="I227" s="8"/>
     </row>
     <row r="228" spans="1:9" ht="21" customHeight="1">
-      <c r="A228" s="73"/>
+      <c r="A228" s="58"/>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
       <c r="D228" s="6"/>
@@ -20530,7 +20471,7 @@
       <c r="I228" s="8"/>
     </row>
     <row r="229" spans="1:9" ht="21" customHeight="1">
-      <c r="A229" s="73"/>
+      <c r="A229" s="58"/>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
       <c r="D229" s="6"/>
@@ -20541,7 +20482,7 @@
       <c r="I229" s="8"/>
     </row>
     <row r="230" spans="1:9" ht="21" customHeight="1">
-      <c r="A230" s="73"/>
+      <c r="A230" s="58"/>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
       <c r="D230" s="6"/>
@@ -20552,7 +20493,7 @@
       <c r="I230" s="8"/>
     </row>
     <row r="231" spans="1:9" ht="21" customHeight="1">
-      <c r="A231" s="73"/>
+      <c r="A231" s="58"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
       <c r="D231" s="6"/>
@@ -20563,7 +20504,7 @@
       <c r="I231" s="8"/>
     </row>
     <row r="232" spans="1:9" ht="21" customHeight="1">
-      <c r="A232" s="73"/>
+      <c r="A232" s="58"/>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
       <c r="D232" s="6"/>
@@ -20574,7 +20515,7 @@
       <c r="I232" s="8"/>
     </row>
     <row r="233" spans="1:9" ht="21" customHeight="1">
-      <c r="A233" s="73"/>
+      <c r="A233" s="58"/>
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
       <c r="D233" s="6"/>
@@ -20585,7 +20526,7 @@
       <c r="I233" s="8"/>
     </row>
     <row r="234" spans="1:9" ht="21" customHeight="1">
-      <c r="A234" s="73"/>
+      <c r="A234" s="58"/>
       <c r="B234" s="6"/>
       <c r="C234" s="6"/>
       <c r="D234" s="6"/>
@@ -20596,7 +20537,7 @@
       <c r="I234" s="8"/>
     </row>
     <row r="235" spans="1:9" ht="21" customHeight="1">
-      <c r="A235" s="73"/>
+      <c r="A235" s="58"/>
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
       <c r="D235" s="6"/>
@@ -20607,7 +20548,7 @@
       <c r="I235" s="8"/>
     </row>
     <row r="236" spans="1:9" ht="21" customHeight="1">
-      <c r="A236" s="73"/>
+      <c r="A236" s="58"/>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
       <c r="D236" s="6"/>
@@ -20618,7 +20559,7 @@
       <c r="I236" s="8"/>
     </row>
     <row r="237" spans="1:9" ht="21" customHeight="1">
-      <c r="A237" s="73"/>
+      <c r="A237" s="58"/>
       <c r="B237" s="6"/>
       <c r="C237" s="6"/>
       <c r="D237" s="6"/>
@@ -20629,7 +20570,7 @@
       <c r="I237" s="8"/>
     </row>
     <row r="238" spans="1:9" ht="21" customHeight="1">
-      <c r="A238" s="73"/>
+      <c r="A238" s="58"/>
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
       <c r="D238" s="6"/>
@@ -20640,7 +20581,7 @@
       <c r="I238" s="8"/>
     </row>
     <row r="239" spans="1:9" ht="21" customHeight="1">
-      <c r="A239" s="73"/>
+      <c r="A239" s="58"/>
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
       <c r="D239" s="6"/>
@@ -20651,7 +20592,7 @@
       <c r="I239" s="8"/>
     </row>
     <row r="240" spans="1:9" ht="21" customHeight="1">
-      <c r="A240" s="73"/>
+      <c r="A240" s="58"/>
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
       <c r="D240" s="6"/>
@@ -20662,7 +20603,7 @@
       <c r="I240" s="8"/>
     </row>
     <row r="241" spans="1:9" ht="21" customHeight="1">
-      <c r="A241" s="73"/>
+      <c r="A241" s="58"/>
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
       <c r="D241" s="6"/>
@@ -20673,7 +20614,7 @@
       <c r="I241" s="8"/>
     </row>
     <row r="242" spans="1:9" ht="21" customHeight="1">
-      <c r="A242" s="73"/>
+      <c r="A242" s="58"/>
       <c r="B242" s="6"/>
       <c r="C242" s="6"/>
       <c r="D242" s="6"/>
@@ -20684,7 +20625,7 @@
       <c r="I242" s="8"/>
     </row>
     <row r="243" spans="1:9" ht="21" customHeight="1">
-      <c r="A243" s="73"/>
+      <c r="A243" s="58"/>
       <c r="B243" s="6"/>
       <c r="C243" s="6"/>
       <c r="D243" s="6"/>
@@ -20695,7 +20636,7 @@
       <c r="I243" s="8"/>
     </row>
     <row r="244" spans="1:9" ht="21" customHeight="1">
-      <c r="A244" s="73"/>
+      <c r="A244" s="58"/>
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
       <c r="D244" s="6"/>
@@ -20706,7 +20647,7 @@
       <c r="I244" s="8"/>
     </row>
     <row r="245" spans="1:9" ht="21" customHeight="1">
-      <c r="A245" s="73"/>
+      <c r="A245" s="58"/>
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
       <c r="D245" s="6"/>
@@ -20717,7 +20658,7 @@
       <c r="I245" s="8"/>
     </row>
     <row r="246" spans="1:9" ht="21" customHeight="1">
-      <c r="A246" s="73"/>
+      <c r="A246" s="58"/>
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
       <c r="D246" s="6"/>
@@ -20728,7 +20669,7 @@
       <c r="I246" s="8"/>
     </row>
     <row r="247" spans="1:9" ht="21" customHeight="1">
-      <c r="A247" s="73"/>
+      <c r="A247" s="58"/>
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
       <c r="D247" s="6"/>
@@ -20739,7 +20680,7 @@
       <c r="I247" s="8"/>
     </row>
     <row r="248" spans="1:9" ht="21" customHeight="1">
-      <c r="A248" s="73"/>
+      <c r="A248" s="58"/>
       <c r="B248" s="6"/>
       <c r="C248" s="6"/>
       <c r="D248" s="6"/>
@@ -20750,7 +20691,7 @@
       <c r="I248" s="8"/>
     </row>
     <row r="249" spans="1:9" ht="21" customHeight="1">
-      <c r="A249" s="73"/>
+      <c r="A249" s="58"/>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
       <c r="D249" s="6"/>
@@ -20761,7 +20702,7 @@
       <c r="I249" s="8"/>
     </row>
     <row r="250" spans="1:9" ht="21" customHeight="1">
-      <c r="A250" s="73"/>
+      <c r="A250" s="58"/>
       <c r="B250" s="6"/>
       <c r="C250" s="6"/>
       <c r="D250" s="6"/>
